--- a/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
+++ b/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\5 Раздел Исследовательский анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289F276-ACD6-4352-8669-F4A2FB463996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A62AFA-6892-4663-BFD1-CB57849EF2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Первичная обработка данных" sheetId="6" r:id="rId1"/>
     <sheet name="2 Исследовательский анализ дан" sheetId="7" r:id="rId2"/>
+    <sheet name="Отчёт" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="161">
   <si>
     <t>Частота</t>
   </si>
@@ -436,6 +437,258 @@
   <si>
     <t>показывает крутизну кривой распределения относительно кривой стандартного нормального распределения</t>
   </si>
+  <si>
+    <t>1) Собранные данные</t>
+  </si>
+  <si>
+    <t>2) Гистограмма по данным</t>
+  </si>
+  <si>
+    <t>3. Рассчитайте следующие значения:</t>
+  </si>
+  <si>
+    <t>3.1 Выборочное среднее</t>
+  </si>
+  <si>
+    <t>3.2 Выборочное стандартное отклонение</t>
+  </si>
+  <si>
+    <t>4. Каков формат данных? Обоснуйте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пример: Длина стопы. </t>
+  </si>
+  <si>
+    <t>Непрерывные данные необходимо группировать при анализе.</t>
+  </si>
+  <si>
+    <t>Продолжительность маршрута троллейбуса (количество вариантов продолжительности конечно): 10, 15, 25 мин.</t>
+  </si>
+  <si>
+    <t>Мои данные о возрасте - дискретны.</t>
+  </si>
+  <si>
+    <t>Т.к. они представлены из множества целых чисел. И продолжительность жизни человека ограничена.</t>
+  </si>
+  <si>
+    <t>5. Алгоритм построения гистограммы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Дискретные данные</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- данные, которые могут принимать значения из строго определенного списка</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Непрерывные данные</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- это данные, которые могут принимать любое значение в заданном диапазоне.</t>
+    </r>
+  </si>
+  <si>
+    <t>Собрать данные</t>
+  </si>
+  <si>
+    <t>Выявить максимальное и минимальное значения данных.</t>
+  </si>
+  <si>
+    <t>Определить диапазон (размах) гистограммы вычитая из максимального значения данных минимальное</t>
+  </si>
+  <si>
+    <t>Полученный диапазон разделить на интервалы, предварительно определив их число (обычно 7-15 в зависимости от числа показателей)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Все данные распределить по интервалам в порядке возрастания: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>левая граница первого интервала должна быть меньше наименьшего из имеющихся значений</t>
+    </r>
+  </si>
+  <si>
+    <t>Почему? 
+Это обязательно?</t>
+  </si>
+  <si>
+    <t>Подсчитать частоту каждого интервала (Сколько данных в него входит)</t>
+  </si>
+  <si>
+    <t>По полученным данным построить гистограмму - столбчатую диаграмму, высота столбиков которой соответствует частоте попадания данных в каждый из интервалов:</t>
+  </si>
+  <si>
+    <t>Отчёт:</t>
+  </si>
+  <si>
+    <t>1) Первичная обработка данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экстремальный выброс - </t>
+  </si>
+  <si>
+    <t>значение данных, которое меньше, чем Q₁ – 3IQR или больше чем Q₁ + 3IQR</t>
+  </si>
+  <si>
+    <t>2) Исследовательский анализ данных</t>
+  </si>
+  <si>
+    <t>1. Определите следующие значения</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Q₁</t>
+  </si>
+  <si>
+    <t>Q₃</t>
+  </si>
+  <si>
+    <t>90-й процентиль</t>
+  </si>
+  <si>
+    <t>Процентиль -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> указывает относительное положение значения данных, когда данные сортируются в числовом порядке от наименьшего к наибольшему.</t>
+  </si>
+  <si>
+    <t>Умеренный выброс</t>
+  </si>
+  <si>
+    <t>Экстремальный выброс</t>
+  </si>
+  <si>
+    <t>Вопрос:</t>
+  </si>
+  <si>
+    <t>К каким выбросам следует относить данные, значения которых попали ровно на границу Экстремального и умеренного выброса?</t>
+  </si>
+  <si>
+    <t>Ответ смотри левее в таблице с данными</t>
+  </si>
+  <si>
+    <t>Таблица границ выбросов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умеренный выброс - </t>
+  </si>
+  <si>
+    <t>6. Есть ли умеренные и/или экстремальные выбросы?</t>
+  </si>
+  <si>
+    <t>значение данных, которое меньше, чем Q₁ – 1.5IQR или больше чем Q₁ + 1.5IQR и которое не является экстремальным выбросом</t>
+  </si>
+  <si>
+    <t>Мин. умеренный выброс слева</t>
+  </si>
+  <si>
+    <t>Мин. умеренный выброс справа</t>
+  </si>
+  <si>
+    <t>Мин. экстремальный выброс слева</t>
+  </si>
+  <si>
+    <t>Мин. экстремальный выброс справа</t>
+  </si>
+  <si>
+    <t>x =</t>
+  </si>
+  <si>
+    <t>интересующее знач1</t>
+  </si>
+  <si>
+    <t>интересующее знач2</t>
+  </si>
+  <si>
+    <t>Тест функции если вмести с ИЛИ</t>
+  </si>
+  <si>
+    <t>Когда я использую такую сложную форму сложно проверить точность результата.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне необходимо выделить диапазоны, в которых могут находится интересующие меня выбросы </t>
+  </si>
+  <si>
+    <t>И делать проверку на принадлежность данных этим диапазонам</t>
+  </si>
+  <si>
+    <t>Результат является значение выбросом и каким или нет должно хранится в 1 столбце</t>
+  </si>
+  <si>
+    <t>Чтобы не перенагружать таблицу</t>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +775,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +849,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -623,13 +942,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -667,13 +1010,93 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -697,26 +1120,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2344,6 +2747,493 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Гистограмма частот возрастов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Первичная обработка данных'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Частота</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1 Первичная обработка данных'!$F$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(1;5]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(5;10]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(10;15]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(15;20]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(20;25]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Первичная обработка данных'!$F$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB17-4001-9606-BFC78F8866AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2069517216"/>
+        <c:axId val="2069500992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2069517216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Диапозоны возрастов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069500992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2069500992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Частоты возрастов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069517216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2464,6 +3354,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3956,6 +4886,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4567,8 +6000,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0121A2-F0CC-4BA5-BFA1-3F41B42FC989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Выбросы">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AFDE2C-71F1-4B66-BCCF-FE6D4C9AD5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="11705137"/>
+          <a:ext cx="5000625" cy="1277438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A3:A112" xr:uid="{F7355CAF-D7DF-4047-B615-B5852A22CC89}">
     <filterColumn colId="0">
       <filters>
@@ -4600,23 +6120,80 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A80:E82" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D02143E-CED5-4EAF-8EDB-EC484875FA1C}" name="Характеристика"/>
     <tableColumn id="2" xr3:uid="{43A56096-1CFC-4B83-AB9C-89958D88D71E}" name="Обозначение"/>
-    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="4">
       <calculatedColumnFormula>KURT(Возраст_детей[Возраст детей])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="3" dataCellStyle="Гиперссылка"/>
     <tableColumn id="5" xr3:uid="{50D3550F-D067-4B93-AC12-02BD33E7BA7C}" name="Как вычисляется"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CD7AE642-6C0B-49D1-8F5F-3087D7F8D5CC}" name="Возраст_детей12" displayName="Возраст_детей12" ref="A4:C99" totalsRowShown="0" headerRowCellStyle="Обычный 2" dataCellStyle="Обычный 2">
+  <autoFilter ref="A4:C99" xr:uid="{CD7AE642-6C0B-49D1-8F5F-3087D7F8D5CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A99">
+    <sortCondition ref="A306:A401"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="0" dataCellStyle="Обычный 2">
+      <calculatedColumnFormula>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N6),"Левый умеренный","Нет")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="1" dataCellStyle="Обычный 2">
+      <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0">
+  <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение">
+      <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
+  <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{88ACF36A-7F5B-4683-9DBC-3C306AB6D36F}" name="Границы_выбросов" displayName="Границы_выбросов" ref="M37:N44" totalsRowShown="0">
+  <autoFilter ref="M37:N44" xr:uid="{88ACF36A-7F5B-4683-9DBC-3C306AB6D36F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{76674ADE-9109-45F7-A669-DEE842EF33DB}" name="Характеристика"/>
+    <tableColumn id="2" xr3:uid="{5147B122-4B52-48C5-8577-6B849488C0FB}" name="Значение"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A114:A205" xr:uid="{0C3BE30E-E423-4A9B-922E-7C0D88772F5C}">
     <filterColumn colId="0">
       <filters>
@@ -4647,7 +6224,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A207:A298" xr:uid="{5C34312A-418B-4C28-A139-43BE01BAC97B}">
     <filterColumn colId="0">
       <filters>
@@ -4699,8 +6276,8 @@
     <tableColumn id="1" xr3:uid="{F8E4884A-250F-4F19-B2C0-E61FDF84F2F5}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{1EC29F04-4823-4B3A-AE7E-B19DA62E8331}" name="Обозначение"/>
     <tableColumn id="2" xr3:uid="{AFAB9759-E248-4E42-8A70-F69818856D86}" name="Значение"/>
-    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4712,11 +6289,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{E907B708-BCA0-47BB-BB90-35F22BBD3206}" name="Обозначение"/>
-    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="12">
       <calculatedColumnFormula>C17-C16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4726,7 +6303,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A37:B42" totalsRowShown="0">
   <autoFilter ref="A37:B42" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{36E62E90-8C4F-440E-AC06-29D346A5D69C}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4737,7 +6314,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A45:B50" totalsRowShown="0">
   <autoFilter ref="A45:B50" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{E713B8F4-E0AA-469B-AADF-9CE82893C1B0}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5009,8 +6586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE50D3-57D2-4B49-AF09-961EE50BFC93}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B399" sqref="B305:B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7407,8 +8984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA7EFD-5432-4866-B4C0-B52E7E03A82C}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7877,4 +9454,1651 @@
     <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2C38E-6167-453C-8D40-81174ADCB121}">
+  <dimension ref="A1:X99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="32.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.42578125" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N6),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C5" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5">
+        <f>MIN(Возраст_детей[Возраст детей])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N7),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C6" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f>MEDIAN(Возраст_детей[Возраст детей])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N8),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C7" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="31">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7">
+        <f>MAX(Возраст_детей[Возраст детей])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N9),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C8" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="12">
+        <f>SQRT(O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8">
+        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N10),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C9" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9">
+        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N11),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C10" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10">
+        <f>V9-V8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N12),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C11" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11">
+        <f>_xlfn.PERCENTILE.INC(Возраст_детей[Возраст детей],0.9)</f>
+        <v>14</v>
+      </c>
+      <c r="W11" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N13),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C12" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N14),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C13" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N15),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C14" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N17),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C15" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N18),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C16" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N19),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C17" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N20),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C18" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N21),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C19" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N22),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C20" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N23),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C21" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N24),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C22" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N25),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C23" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N26),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C24" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L24" s="36">
+        <v>1</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N27),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C25" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N28),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C26" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N29),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C27" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N30),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C28" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L28" s="36">
+        <v>4</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N31),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C29" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L29" s="36">
+        <v>5</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N32),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C30" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L30" s="36">
+        <v>6</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N33),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C31" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L31" s="36">
+        <v>7</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N34),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C32" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="L32" s="36"/>
+    </row>
+    <row r="33" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>8</v>
+      </c>
+      <c r="B33" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N35),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C33" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N36),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C34" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N37),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C35" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M35" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N38),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C36" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N39),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C37" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N40),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C38" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38">
+        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N41),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C39" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M39" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39">
+        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N42),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C40" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M40" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40">
+        <f>N39-N38</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N43),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C41" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M41" t="s">
+        <v>148</v>
+      </c>
+      <c r="N41">
+        <f>N38-1.5*N40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N44),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C42" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M42" t="s">
+        <v>149</v>
+      </c>
+      <c r="N42">
+        <f>N38+1.5*N40</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N45),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C43" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M43" t="s">
+        <v>150</v>
+      </c>
+      <c r="N43">
+        <f>N38-3*N40</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N46),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C44" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="M44" t="s">
+        <v>151</v>
+      </c>
+      <c r="N44">
+        <f>N38+3*N40</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N47),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C45" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N48),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C46" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>8</v>
+      </c>
+      <c r="B47" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N49),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C47" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="B48" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N50),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C48" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N51),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C49" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N52),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C50" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N53),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C51" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N54),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C52" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="B53" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N55),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C53" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44">
+        <v>1</v>
+      </c>
+      <c r="L53" s="44"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N56),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C54" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44">
+        <v>2</v>
+      </c>
+      <c r="L54" s="44"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>9</v>
+      </c>
+      <c r="B55" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N57),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C55" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="B56" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N58),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C56" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44" t="str">
+        <f>IF(OR(L52=K53,L52=K54),"1 или 2","не 1 или 2")</f>
+        <v>не 1 или 2</v>
+      </c>
+      <c r="L56" s="44"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N59),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C57" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>10</v>
+      </c>
+      <c r="B58" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N60),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C58" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>10</v>
+      </c>
+      <c r="B59" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N61),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C59" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N62),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C60" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N63),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C61" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>10</v>
+      </c>
+      <c r="B62" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N64),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C62" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N65),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C63" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="H63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+      <c r="B64" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N66),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C64" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N67),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C65" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N68),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C66" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+      <c r="B67" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N69),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C67" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>11</v>
+      </c>
+      <c r="B68" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N70),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C68" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>11</v>
+      </c>
+      <c r="B69" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N71),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C69" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>11</v>
+      </c>
+      <c r="B70" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N72),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C70" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>11</v>
+      </c>
+      <c r="B71" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N73),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C71" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+      <c r="B72" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N74),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C72" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N75),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C73" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+      <c r="B74" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N76),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C74" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>11</v>
+      </c>
+      <c r="B75" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N77),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C75" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>11</v>
+      </c>
+      <c r="B76" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N78),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C76" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>11</v>
+      </c>
+      <c r="B77" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N79),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C77" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>11</v>
+      </c>
+      <c r="B78" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N80),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C78" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>11</v>
+      </c>
+      <c r="B79" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N81),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C79" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>12</v>
+      </c>
+      <c r="B80" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N82),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C80" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>12</v>
+      </c>
+      <c r="B81" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N83),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C81" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>12</v>
+      </c>
+      <c r="B82" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N84),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C82" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+      <c r="B83" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N85),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C83" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>12</v>
+      </c>
+      <c r="B84" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N86),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C84" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>12</v>
+      </c>
+      <c r="B85" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N87),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C85" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>13</v>
+      </c>
+      <c r="B86" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N88),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C86" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>14</v>
+      </c>
+      <c r="B87" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N89),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C87" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>14</v>
+      </c>
+      <c r="B88" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N90),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C88" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>14</v>
+      </c>
+      <c r="B89" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N91),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C89" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>14</v>
+      </c>
+      <c r="B90" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N92),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C90" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>14</v>
+      </c>
+      <c r="B91" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N93),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C91" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>14</v>
+      </c>
+      <c r="B92" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N94),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C92" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>14</v>
+      </c>
+      <c r="B93" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N95),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C93" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>15</v>
+      </c>
+      <c r="B94" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N96),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C94" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Нет</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>19</v>
+      </c>
+      <c r="B95" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N97),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C95" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Да</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>20</v>
+      </c>
+      <c r="B96" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N98),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C96" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Да</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>21</v>
+      </c>
+      <c r="B97" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N99),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C97" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Да</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>23</v>
+      </c>
+      <c r="B98" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N100),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C98" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Да</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>27</v>
+      </c>
+      <c r="B99" s="42" t="str">
+        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N101),"Левый умеренный","Нет")</f>
+        <v>Нет</v>
+      </c>
+      <c r="C99" s="42" t="str">
+        <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
+        <v>Да</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
+++ b/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\5 Раздел Исследовательский анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A62AFA-6892-4663-BFD1-CB57849EF2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37158B58-AAE4-443B-83C2-ED21635EA107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="178">
   <si>
     <t>Частота</t>
   </si>
@@ -675,19 +675,71 @@
     <t>Тест функции если вмести с ИЛИ</t>
   </si>
   <si>
-    <t>Когда я использую такую сложную форму сложно проверить точность результата.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мне необходимо выделить диапазоны, в которых могут находится интересующие меня выбросы </t>
-  </si>
-  <si>
-    <t>И делать проверку на принадлежность данных этим диапазонам</t>
-  </si>
-  <si>
-    <t>Результат является значение выбросом и каким или нет должно хранится в 1 столбце</t>
-  </si>
-  <si>
-    <t>Чтобы не перенагружать таблицу</t>
+    <t>Включаю в умеренный выброс</t>
+  </si>
+  <si>
+    <t>Включаю в экстремальный выброс</t>
+  </si>
+  <si>
+    <t>Я решил зделать так:</t>
+  </si>
+  <si>
+    <t>2. Постройте коробковую диаграмму</t>
+  </si>
+  <si>
+    <t>3. Что форма диаграммы говорит о концентрации данных?</t>
+  </si>
+  <si>
+    <t>Коробчатая диаграмма показывает, что наибольшая часть детей находится в возрасте от 7 до 11 лет (между 1 и 3 квартилями)</t>
+  </si>
+  <si>
+    <t>4. Как с помощью коробковой диаграммы определить, есть ли потенциальные выбросы?</t>
+  </si>
+  <si>
+    <t>Необходимо отметить на ней места, которые ограничивают диапазоны выбросов.</t>
+  </si>
+  <si>
+    <t>Если имеются данные, которые лежат в этих диапозонах, то они и являются выбросами</t>
+  </si>
+  <si>
+    <t>5. Как стандартное отклонение помогает определить концентрацию данных и наличие потенциальных выбросов?</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение s определяет насколько далеко может быть значение данных от среднего значения набора данных.</t>
+  </si>
+  <si>
+    <t>Если s маленькое, то данные сильно сконцентрированны.</t>
+  </si>
+  <si>
+    <t>Если s велико, то вероятность наличия выбросов сильно возрастает.</t>
+  </si>
+  <si>
+    <t>6. Что представляет собой IQR в этой задаче?</t>
+  </si>
+  <si>
+    <t>IQR = 4</t>
+  </si>
+  <si>
+    <t>В моей задача IQR это разность между первыми 25 % детей и последними 25% детей по возрасту.
+Т.е. он говорит, что разница между первыми 25% и 75% детей по возрасту составляет 4 года.</t>
+  </si>
+  <si>
+    <t>7. Найдите значение, которое составляет 1.5 стандартных отклонения:</t>
+  </si>
+  <si>
+    <t>а. выше среднего _______</t>
+  </si>
+  <si>
+    <t>b. ниже среднего _______</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее - медиана - Me = </t>
+  </si>
+  <si>
+    <t>Стандартное отклонение s =</t>
+  </si>
+  <si>
+    <t>ГОТОВО)</t>
   </si>
 </sst>
 </file>
@@ -697,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +880,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="6">
@@ -972,7 +1035,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1044,6 +1107,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1051,9 +1124,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1076,6 +1146,9 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6043,15 +6116,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>56062</xdr:rowOff>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6074,8 +6147,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="11705137"/>
-          <a:ext cx="5000625" cy="1277438"/>
+          <a:off x="8899072" y="13214169"/>
+          <a:ext cx="5004707" cy="1277438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>843499</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Коробчатая диаграмма2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C36E2EF-B961-45CF-A660-0FE5085A26DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24406412" y="4202206"/>
+          <a:ext cx="5594793" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45943</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>388556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>97171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Выбросы">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7B3ABC-F037-4343-9344-CAEA6DB5DE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24452355" y="10496262"/>
+          <a:ext cx="4985497" cy="1277438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6144,9 +6305,9 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
     <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="0" dataCellStyle="Обычный 2">
-      <calculatedColumnFormula>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N6),"Левый умеренный","Нет")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="1" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="2" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6174,7 +6335,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6586,11 +6747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE50D3-57D2-4B49-AF09-961EE50BFC93}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B399" sqref="B305:B399"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6599,12 +6760,12 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -6612,7 +6773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -6620,7 +6781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -6628,7 +6789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6636,7 +6797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6644,12 +6805,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6657,7 +6818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6680,7 +6841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6703,7 +6864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -6731,12 +6892,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -6764,7 +6925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -6792,7 +6953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -6804,7 +6965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -6812,17 +6973,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -6830,7 +6991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -6838,107 +6999,107 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -6946,7 +7107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -6954,262 +7115,262 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" hidden="1">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" hidden="1">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" hidden="1">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" hidden="1">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" hidden="1">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" hidden="1">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" hidden="1">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" hidden="1">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" hidden="1">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -7220,7 +7381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -7231,7 +7392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -7242,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -7253,7 +7414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -7264,7 +7425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -7275,7 +7436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -7286,7 +7447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -7297,7 +7458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -7308,7 +7469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -7319,7 +7480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -7330,7 +7491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -7341,7 +7502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -7352,7 +7513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -7363,7 +7524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -7374,7 +7535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -7385,7 +7546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -7396,7 +7557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -7407,942 +7568,942 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" hidden="1">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" hidden="1">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" hidden="1">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" hidden="1">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" hidden="1">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" hidden="1">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" hidden="1">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" hidden="1">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" hidden="1">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" hidden="1">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" hidden="1">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" hidden="1">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" hidden="1">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" hidden="1">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" hidden="1">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" hidden="1">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" hidden="1">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" hidden="1">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" hidden="1">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" hidden="1">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" hidden="1">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" hidden="1">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" hidden="1">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" hidden="1">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" hidden="1">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" hidden="1">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" hidden="1">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" hidden="1">
       <c r="A163" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" hidden="1">
       <c r="A164" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" hidden="1">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" hidden="1">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" hidden="1">
       <c r="A168" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" hidden="1">
       <c r="A169" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" hidden="1">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" hidden="1">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" hidden="1">
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" hidden="1">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" hidden="1">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" hidden="1">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" hidden="1">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" hidden="1">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" hidden="1">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" hidden="1">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" hidden="1">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" hidden="1">
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" hidden="1">
       <c r="A184" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" hidden="1">
       <c r="A185" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" hidden="1">
       <c r="A187" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" hidden="1">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" hidden="1">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" hidden="1">
       <c r="A190" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" hidden="1">
       <c r="A191" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" hidden="1">
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" hidden="1">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" hidden="1">
       <c r="A197" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" hidden="1">
       <c r="A200" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" hidden="1">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" hidden="1">
       <c r="A202" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" hidden="1">
       <c r="A203" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" hidden="1">
       <c r="A204" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" hidden="1">
       <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" hidden="1">
       <c r="A208" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" hidden="1">
       <c r="A209" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" hidden="1">
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" hidden="1">
       <c r="A211" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" hidden="1">
       <c r="A212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" hidden="1">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" hidden="1">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" hidden="1">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" hidden="1">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" hidden="1">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" hidden="1">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" hidden="1">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" hidden="1">
       <c r="A220" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" hidden="1">
       <c r="A221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" hidden="1">
       <c r="A222" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" hidden="1">
       <c r="A223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" hidden="1">
       <c r="A224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" hidden="1">
       <c r="A226" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" hidden="1">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" hidden="1">
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" hidden="1">
       <c r="A229" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" hidden="1">
       <c r="A230" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" hidden="1">
       <c r="A231" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" hidden="1">
       <c r="A232" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" hidden="1">
       <c r="A233" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" hidden="1">
       <c r="A234" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" hidden="1">
       <c r="A235" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" hidden="1">
       <c r="A236" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" hidden="1">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" hidden="1">
       <c r="A238" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" hidden="1">
       <c r="A239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" hidden="1">
       <c r="A240" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" hidden="1">
       <c r="A241" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" hidden="1">
       <c r="A242" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" hidden="1">
       <c r="A243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" hidden="1">
       <c r="A244" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" hidden="1">
       <c r="A245" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" hidden="1">
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" hidden="1">
       <c r="A247" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" hidden="1">
       <c r="A248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" hidden="1">
       <c r="A249" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" hidden="1">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" hidden="1">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" hidden="1">
       <c r="A252" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" hidden="1">
       <c r="A253" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" hidden="1">
       <c r="A254" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" hidden="1">
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" hidden="1">
       <c r="A256" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" hidden="1">
       <c r="A257" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" hidden="1">
       <c r="A258" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" hidden="1">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" hidden="1">
       <c r="A260" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" hidden="1">
       <c r="A261" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" hidden="1">
       <c r="A262" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" hidden="1">
       <c r="A263" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" hidden="1">
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" hidden="1">
       <c r="A265" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" hidden="1">
       <c r="A266" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" hidden="1">
       <c r="A267" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" hidden="1">
       <c r="A268" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" hidden="1">
       <c r="A269" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" hidden="1">
       <c r="A270" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" hidden="1">
       <c r="A272" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" hidden="1">
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" hidden="1">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" hidden="1">
       <c r="A275" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" hidden="1">
       <c r="A276" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" hidden="1">
       <c r="A278" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" hidden="1">
       <c r="A279" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" hidden="1">
       <c r="A281" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" hidden="1">
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" hidden="1">
       <c r="A283" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" hidden="1">
       <c r="A284" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" hidden="1">
       <c r="A285" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" hidden="1">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" hidden="1">
       <c r="A287" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" hidden="1">
       <c r="A288" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1">
       <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1">
       <c r="A295" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1">
       <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1">
       <c r="A297" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1">
       <c r="A298" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4">
       <c r="B299" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4">
       <c r="B300" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4">
       <c r="B302" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4">
       <c r="B304" s="1" t="s">
         <v>38</v>
       </c>
@@ -8350,7 +8511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6">
       <c r="B305" s="1">
         <v>2</v>
       </c>
@@ -8361,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6">
       <c r="B306" s="1">
         <v>3</v>
       </c>
@@ -8373,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6">
       <c r="B307" s="1">
         <v>4</v>
       </c>
@@ -8385,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6">
       <c r="B308" s="1">
         <v>4</v>
       </c>
@@ -8397,7 +8558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6">
       <c r="B309" s="1">
         <v>4</v>
       </c>
@@ -8409,7 +8570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6">
       <c r="B310" s="1">
         <v>5</v>
       </c>
@@ -8421,7 +8582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6">
       <c r="B311" s="1">
         <v>5</v>
       </c>
@@ -8433,7 +8594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6">
       <c r="B312" s="1">
         <v>5</v>
       </c>
@@ -8448,7 +8609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6">
       <c r="B313" s="1">
         <v>5</v>
       </c>
@@ -8460,7 +8621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6">
       <c r="B314" s="1">
         <v>5</v>
       </c>
@@ -8472,7 +8633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6">
       <c r="B315" s="1">
         <v>6</v>
       </c>
@@ -8484,7 +8645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6">
       <c r="B316" s="1">
         <v>6</v>
       </c>
@@ -8496,7 +8657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6">
       <c r="B317" s="1">
         <v>6</v>
       </c>
@@ -8508,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6">
       <c r="B318" s="1">
         <v>6</v>
       </c>
@@ -8520,7 +8681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6">
       <c r="B319" s="1">
         <v>6</v>
       </c>
@@ -8532,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6">
       <c r="B320" s="1">
         <v>6</v>
       </c>
@@ -8544,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5">
       <c r="B321" s="1">
         <v>6</v>
       </c>
@@ -8556,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5">
       <c r="B322" s="1">
         <v>6</v>
       </c>
@@ -8568,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5">
       <c r="B323" s="1">
         <v>6</v>
       </c>
@@ -8580,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5">
       <c r="B324" s="1">
         <v>6</v>
       </c>
@@ -8592,377 +8753,377 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5">
       <c r="B325" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5">
       <c r="B326" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5">
       <c r="B327" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5">
       <c r="B328" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5">
       <c r="B329" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5">
       <c r="B330" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5">
       <c r="B331" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5">
       <c r="B332" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5">
       <c r="B333" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5">
       <c r="B334" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5">
       <c r="B335" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5">
       <c r="B336" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2">
       <c r="B399" s="1">
         <v>27</v>
       </c>
@@ -8984,11 +9145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA7EFD-5432-4866-B4C0-B52E7E03A82C}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -8997,17 +9158,17 @@
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -9024,7 +9185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9042,7 +9203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="106.5" customHeight="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -9060,7 +9221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -9078,7 +9239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="105">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -9096,7 +9257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -9112,19 +9273,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -9141,7 +9302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="107.25" customHeight="1">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -9159,7 +9320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="64.5" customHeight="1">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -9178,7 +9339,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="93" customHeight="1">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -9197,7 +9358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="75">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -9218,7 +9379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="195">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -9237,27 +9398,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
         <v>84</v>
       </c>
@@ -9265,7 +9426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="21" t="s">
         <v>86</v>
       </c>
@@ -9274,7 +9435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="21" t="s">
         <v>58</v>
       </c>
@@ -9283,7 +9444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="21" t="s">
         <v>71</v>
       </c>
@@ -9292,7 +9453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="21" t="s">
         <v>60</v>
       </c>
@@ -9301,7 +9462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="21" t="s">
         <v>87</v>
       </c>
@@ -9310,15 +9471,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="21" t="s">
         <v>89</v>
       </c>
@@ -9326,7 +9487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9335,7 +9496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="21" t="s">
         <v>90</v>
       </c>
@@ -9344,7 +9505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="21" t="s">
         <v>94</v>
       </c>
@@ -9353,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="21" t="s">
         <v>91</v>
       </c>
@@ -9362,7 +9523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="21" t="s">
         <v>92</v>
       </c>
@@ -9371,28 +9532,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="21"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="E54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="E55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="24" t="s">
         <v>42</v>
       </c>
@@ -9409,7 +9570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="90">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -9424,7 +9585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="75">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -9460,11 +9621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2C38E-6167-453C-8D40-81174ADCB121}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -9484,7 +9645,7 @@
     <col min="24" max="24" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="40" t="s">
         <v>126</v>
       </c>
@@ -9498,7 +9659,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="14" t="s">
         <v>104</v>
       </c>
@@ -9514,7 +9675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -9534,12 +9695,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N6),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C5" s="42" t="str">
@@ -9557,12 +9718,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N7),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C6" s="42" t="str">
@@ -9592,12 +9753,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N8),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C7" s="42" t="str">
@@ -9628,12 +9789,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="60">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N9),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C8" s="42" t="str">
@@ -9667,12 +9828,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N10),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C9" s="42" t="str">
@@ -9687,12 +9848,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N11),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C10" s="42" t="str">
@@ -9710,12 +9871,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="60">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N12),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C11" s="42" t="str">
@@ -9736,12 +9897,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N13),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C12" s="42" t="str">
@@ -9752,12 +9913,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N14),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C13" s="42" t="str">
@@ -9768,25 +9929,28 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N15),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C14" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U14" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N17),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C15" s="42" t="str">
@@ -9797,12 +9961,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>6</v>
       </c>
       <c r="B16" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N18),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C16" s="42" t="str">
@@ -9813,12 +9977,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N19),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C17" s="42" t="str">
@@ -9829,12 +9993,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>6</v>
       </c>
       <c r="B18" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N20),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C18" s="42" t="str">
@@ -9842,12 +10006,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>6</v>
       </c>
       <c r="B19" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N21),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C19" s="42" t="str">
@@ -9855,12 +10019,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>6</v>
       </c>
       <c r="B20" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N22),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C20" s="42" t="str">
@@ -9871,12 +10035,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N23),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C21" s="42" t="str">
@@ -9887,12 +10051,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N24),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C22" s="42" t="str">
@@ -9900,12 +10064,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>6</v>
       </c>
       <c r="B23" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N25),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C23" s="42" t="str">
@@ -9916,12 +10080,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>6</v>
       </c>
       <c r="B24" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N26),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C24" s="42" t="str">
@@ -9935,12 +10099,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30">
       <c r="A25" s="1">
         <v>7</v>
       </c>
       <c r="B25" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N27),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C25" s="42" t="str">
@@ -9954,12 +10118,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="45">
       <c r="A26" s="1">
         <v>7</v>
       </c>
       <c r="B26" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N28),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C26" s="42" t="str">
@@ -9973,12 +10137,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>7</v>
       </c>
       <c r="B27" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N29),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C27" s="42" t="str">
@@ -9987,12 +10151,12 @@
       </c>
       <c r="M27" s="38"/>
     </row>
-    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="60">
       <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N30),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C28" s="42" t="str">
@@ -10005,13 +10169,16 @@
       <c r="M28" s="37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="U28" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="60">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N31),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C29" s="42" t="str">
@@ -10027,13 +10194,16 @@
       <c r="N29" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30">
       <c r="A30" s="1">
         <v>7</v>
       </c>
       <c r="B30" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N32),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C30" s="42" t="str">
@@ -10047,12 +10217,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="75">
       <c r="A31" s="1">
         <v>7</v>
       </c>
       <c r="B31" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N33),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C31" s="42" t="str">
@@ -10065,13 +10235,16 @@
       <c r="M31" s="37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="U31" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N34),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C32" s="42" t="str">
@@ -10079,13 +10252,16 @@
         <v>Нет</v>
       </c>
       <c r="L32" s="36"/>
-    </row>
-    <row r="33" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="123.75" customHeight="1">
       <c r="A33" s="1">
         <v>8</v>
       </c>
       <c r="B33" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N35),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C33" s="42" t="str">
@@ -10101,13 +10277,16 @@
       <c r="M33" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U33" s="46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>8</v>
       </c>
       <c r="B34" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N36),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C34" s="42" t="str">
@@ -10115,12 +10294,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>8</v>
       </c>
       <c r="B35" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N37),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C35" s="42" t="str">
@@ -10134,12 +10313,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="75">
       <c r="A36" s="1">
         <v>8</v>
       </c>
       <c r="B36" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N38),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C36" s="42" t="str">
@@ -10159,12 +10338,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>8</v>
       </c>
       <c r="B37" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N39),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C37" s="42" t="str">
@@ -10177,13 +10356,16 @@
       <c r="N37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U37" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>8</v>
       </c>
       <c r="B38" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N40),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C38" s="42" t="str">
@@ -10198,12 +10380,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>8</v>
       </c>
       <c r="B39" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N41),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C39" s="42" t="str">
@@ -10217,13 +10399,19 @@
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>158</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>8</v>
       </c>
       <c r="B40" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N42),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C40" s="42" t="str">
@@ -10237,13 +10425,16 @@
         <f>N39-N38</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>8</v>
       </c>
       <c r="B41" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N43),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C41" s="42" t="str">
@@ -10257,13 +10448,19 @@
         <f>N38-1.5*N40</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>156</v>
+      </c>
+      <c r="U41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>8</v>
       </c>
       <c r="B42" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N44),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C42" s="42" t="str">
@@ -10277,13 +10474,16 @@
         <f>N38+1.5*N40</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>8</v>
       </c>
       <c r="B43" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N45),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C43" s="42" t="str">
@@ -10297,13 +10497,19 @@
         <f>N38-3*N40</f>
         <v>-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>157</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>8</v>
       </c>
       <c r="B44" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N46),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C44" s="42" t="str">
@@ -10317,26 +10523,35 @@
         <f>N38+3*N40</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>157</v>
+      </c>
+      <c r="U44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="90">
       <c r="A45" s="1">
         <v>8</v>
       </c>
       <c r="B45" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N47),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C45" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U45" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>8</v>
       </c>
       <c r="B46" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N48),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C46" s="42" t="str">
@@ -10344,64 +10559,88 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="15.75">
       <c r="A47" s="1">
         <v>8</v>
       </c>
       <c r="B47" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N49),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C47" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U47" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>8</v>
       </c>
       <c r="B48" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N50),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C48" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>175</v>
+      </c>
+      <c r="V48">
+        <f>MEDIAN(Возраст_детей[Возраст детей])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>9</v>
       </c>
       <c r="B49" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N51),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C49" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="U49" t="s">
+        <v>176</v>
+      </c>
+      <c r="V49" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N52),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C50" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="U50" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="V50" s="12">
+        <f>V48+1.5*V49</f>
+        <v>15.139189006484068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>9</v>
       </c>
       <c r="B51" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N53),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C51" s="42" t="str">
@@ -10411,13 +10650,20 @@
       <c r="H51" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="U51" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="V51" s="12">
+        <f>V48-1.5*V49</f>
+        <v>2.8608109935159316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>9</v>
       </c>
       <c r="B52" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N54),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C52" s="42" t="str">
@@ -10434,12 +10680,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>9</v>
       </c>
       <c r="B53" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N55),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C53" s="42" t="str">
@@ -10456,12 +10702,12 @@
       </c>
       <c r="L53" s="44"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>9</v>
       </c>
       <c r="B54" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N56),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C54" s="42" t="str">
@@ -10477,13 +10723,16 @@
         <v>2</v>
       </c>
       <c r="L54" s="44"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>9</v>
       </c>
       <c r="B55" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N57),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C55" s="42" t="str">
@@ -10496,12 +10745,12 @@
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>10</v>
       </c>
       <c r="B56" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N58),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C56" s="42" t="str">
@@ -10517,12 +10766,12 @@
       </c>
       <c r="L56" s="44"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>10</v>
       </c>
       <c r="B57" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N59),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C57" s="42" t="str">
@@ -10530,60 +10779,51 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>10</v>
       </c>
       <c r="B58" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N60),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C58" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>10</v>
       </c>
       <c r="B59" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N61),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C59" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>10</v>
       </c>
       <c r="B60" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N62),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C60" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>10</v>
       </c>
       <c r="B61" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N63),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C61" s="42" t="str">
@@ -10591,44 +10831,38 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>10</v>
       </c>
       <c r="B62" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N64),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C62" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>10</v>
       </c>
       <c r="B63" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N65),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C63" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>10</v>
       </c>
       <c r="B64" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N66),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C64" s="42" t="str">
@@ -10636,12 +10870,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>11</v>
       </c>
       <c r="B65" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N67),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C65" s="42" t="str">
@@ -10649,12 +10883,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>11</v>
       </c>
       <c r="B66" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N68),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C66" s="42" t="str">
@@ -10662,12 +10896,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>11</v>
       </c>
       <c r="B67" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N69),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C67" s="42" t="str">
@@ -10675,12 +10909,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>11</v>
       </c>
       <c r="B68" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N70),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C68" s="42" t="str">
@@ -10688,12 +10922,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>11</v>
       </c>
       <c r="B69" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N71),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C69" s="42" t="str">
@@ -10701,12 +10935,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>11</v>
       </c>
       <c r="B70" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N72),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C70" s="42" t="str">
@@ -10714,12 +10948,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>11</v>
       </c>
       <c r="B71" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N73),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C71" s="42" t="str">
@@ -10727,12 +10961,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>11</v>
       </c>
       <c r="B72" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N74),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C72" s="42" t="str">
@@ -10740,12 +10974,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
       <c r="B73" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N75),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C73" s="42" t="str">
@@ -10753,12 +10987,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>11</v>
       </c>
       <c r="B74" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N76),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C74" s="42" t="str">
@@ -10766,12 +11000,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>11</v>
       </c>
       <c r="B75" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N77),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C75" s="42" t="str">
@@ -10779,12 +11013,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>11</v>
       </c>
       <c r="B76" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N78),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C76" s="42" t="str">
@@ -10792,12 +11026,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>11</v>
       </c>
       <c r="B77" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N79),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C77" s="42" t="str">
@@ -10805,12 +11039,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>11</v>
       </c>
       <c r="B78" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N80),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C78" s="42" t="str">
@@ -10818,12 +11052,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>11</v>
       </c>
       <c r="B79" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N81),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C79" s="42" t="str">
@@ -10831,12 +11065,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>12</v>
       </c>
       <c r="B80" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N82),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C80" s="42" t="str">
@@ -10844,12 +11078,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>12</v>
       </c>
       <c r="B81" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N83),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C81" s="42" t="str">
@@ -10857,12 +11091,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>12</v>
       </c>
       <c r="B82" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N84),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C82" s="42" t="str">
@@ -10870,12 +11104,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>12</v>
       </c>
       <c r="B83" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N85),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C83" s="42" t="str">
@@ -10883,12 +11117,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>12</v>
       </c>
       <c r="B84" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N86),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C84" s="42" t="str">
@@ -10896,12 +11130,12 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>12</v>
       </c>
       <c r="B85" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N87),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C85" s="42" t="str">
@@ -10909,129 +11143,129 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>13</v>
       </c>
       <c r="B86" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N88),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C86" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>14</v>
       </c>
       <c r="B87" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N89),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C87" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>14</v>
       </c>
       <c r="B88" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N90),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C88" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
       <c r="B89" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N91),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C89" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>14</v>
       </c>
       <c r="B90" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N92),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C90" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>14</v>
       </c>
       <c r="B91" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N93),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C91" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>14</v>
       </c>
       <c r="B92" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N94),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C92" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>14</v>
       </c>
       <c r="B93" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N95),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C93" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>15</v>
       </c>
       <c r="B94" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N96),"Левый умеренный","Нет")</f>
-        <v>Нет</v>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
+        <v>Да</v>
       </c>
       <c r="C94" s="42" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>19</v>
       </c>
       <c r="B95" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N97),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C95" s="42" t="str">
@@ -11039,12 +11273,12 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>20</v>
       </c>
       <c r="B96" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N98),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C96" s="42" t="str">
@@ -11052,12 +11286,12 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>21</v>
       </c>
       <c r="B97" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N99),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C97" s="42" t="str">
@@ -11065,12 +11299,12 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>23</v>
       </c>
       <c r="B98" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N100),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C98" s="42" t="str">
@@ -11078,12 +11312,12 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>27</v>
       </c>
       <c r="B99" s="42" t="str">
-        <f>IF(AND(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=N101),"Левый умеренный","Нет")</f>
+        <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="C99" s="42" t="str">

--- a/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
+++ b/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\5 Раздел Исследовательский анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37158B58-AAE4-443B-83C2-ED21635EA107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE49F17-3007-4C57-84B0-990D786526DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,6 +55,40 @@
     <author>Spaceship24</author>
   </authors>
   <commentList>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{0D5D98BC-DA76-4544-8A16-CF1002399C8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Spaceship24:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Дисперсию генеральной совокупности никогда нельзя посчатитать, если у тебя нет всех данных.
+Здесь я смог её посчитать, если заявляю, что дети не будут добавляться.
+В моём исследовании анализируется возраст всех детей.
+Но я предполагаю, что в будущем дети будут добавляться.
+В связи с этим считается, что у меня НЕТ всей информации.
+Если имеется информация обо всех объектах и не предполагается, что в будущем они будут добавляться, то исследование таких данных - не задача статистики.
+Такая задача называется Сплошным исследованием. Оно полезно, когда нас интересует только эта совокупность.
+Задача статистики - проанализировать выборку (не все данные) и на основании полученных результатов сделать выводы обо всей совокупности.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{BEFAA7B8-D1B6-4DF5-BB99-0832D6B29BC3}">
       <text>
         <r>
@@ -86,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="180">
   <si>
     <t>Частота</t>
   </si>
@@ -209,9 +243,6 @@
   </si>
   <si>
     <t>2 Анализ характеристики разброса</t>
-  </si>
-  <si>
-    <t>Среднеквадратичное (стандартное) отклонение</t>
   </si>
   <si>
     <t>Характеристика</t>
@@ -279,9 +310,6 @@
     <t>IQR</t>
   </si>
   <si>
-    <t>Дисперсия генеральной совокупности</t>
-  </si>
-  <si>
     <t>σ²</t>
   </si>
   <si>
@@ -306,70 +334,13 @@
     <t>Me</t>
   </si>
   <si>
-    <t>Выборочная дисперсия</t>
-  </si>
-  <si>
     <t>s²</t>
   </si>
   <si>
-    <t>????????????????????????????????????????????????????????????????????????????????????????????????????????</t>
-  </si>
-  <si>
-    <t>????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????</t>
-  </si>
-  <si>
     <t xml:space="preserve"> √(s²)</t>
   </si>
   <si>
-    <r>
-      <t>Насколько далеко может быть значение данных от среднего значения набора данных (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Т.е. какого значения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>v</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Используется для сравнения двух совокупностей. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отношение стандартного отклонения к среднему значению выборки.</t>
-    </r>
-  </si>
-  <si>
-    <t>Если совокупность - это набор элементов, то она у меня 1.
-Как возможен этот расчёт?</t>
-  </si>
-  <si>
-    <t>Нужно объяснение</t>
   </si>
   <si>
     <t>s</t>
@@ -560,186 +531,248 @@
     <t>Полученный диапазон разделить на интервалы, предварительно определив их число (обычно 7-15 в зависимости от числа показателей)</t>
   </si>
   <si>
+    <t>Подсчитать частоту каждого интервала (Сколько данных в него входит)</t>
+  </si>
+  <si>
+    <t>По полученным данным построить гистограмму - столбчатую диаграмму, высота столбиков которой соответствует частоте попадания данных в каждый из интервалов:</t>
+  </si>
+  <si>
+    <t>Отчёт:</t>
+  </si>
+  <si>
+    <t>1) Первичная обработка данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экстремальный выброс - </t>
+  </si>
+  <si>
+    <t>значение данных, которое меньше, чем Q₁ – 3IQR или больше чем Q₁ + 3IQR</t>
+  </si>
+  <si>
+    <t>2) Исследовательский анализ данных</t>
+  </si>
+  <si>
+    <t>1. Определите следующие значения</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Q₁</t>
+  </si>
+  <si>
+    <t>Q₃</t>
+  </si>
+  <si>
+    <t>90-й процентиль</t>
+  </si>
+  <si>
+    <t>Процентиль -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> указывает относительное положение значения данных, когда данные сортируются в числовом порядке от наименьшего к наибольшему.</t>
+  </si>
+  <si>
+    <t>Умеренный выброс</t>
+  </si>
+  <si>
+    <t>Экстремальный выброс</t>
+  </si>
+  <si>
+    <t>Вопрос:</t>
+  </si>
+  <si>
+    <t>Ответ смотри левее в таблице с данными</t>
+  </si>
+  <si>
+    <t>Таблица границ выбросов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умеренный выброс - </t>
+  </si>
+  <si>
+    <t>6. Есть ли умеренные и/или экстремальные выбросы?</t>
+  </si>
+  <si>
+    <t>значение данных, которое меньше, чем Q₁ – 1.5IQR или больше чем Q₁ + 1.5IQR и которое не является экстремальным выбросом</t>
+  </si>
+  <si>
+    <t>Мин. умеренный выброс слева</t>
+  </si>
+  <si>
+    <t>Мин. умеренный выброс справа</t>
+  </si>
+  <si>
+    <t>Мин. экстремальный выброс слева</t>
+  </si>
+  <si>
+    <t>Мин. экстремальный выброс справа</t>
+  </si>
+  <si>
+    <t>x =</t>
+  </si>
+  <si>
+    <t>интересующее знач1</t>
+  </si>
+  <si>
+    <t>интересующее знач2</t>
+  </si>
+  <si>
+    <t>Тест функции если вмести с ИЛИ</t>
+  </si>
+  <si>
+    <t>Включаю в умеренный выброс</t>
+  </si>
+  <si>
+    <t>Включаю в экстремальный выброс</t>
+  </si>
+  <si>
+    <t>Я решил зделать так:</t>
+  </si>
+  <si>
+    <t>2. Постройте коробковую диаграмму</t>
+  </si>
+  <si>
+    <t>3. Что форма диаграммы говорит о концентрации данных?</t>
+  </si>
+  <si>
+    <t>Коробчатая диаграмма показывает, что наибольшая часть детей находится в возрасте от 7 до 11 лет (между 1 и 3 квартилями)</t>
+  </si>
+  <si>
+    <t>4. Как с помощью коробковой диаграммы определить, есть ли потенциальные выбросы?</t>
+  </si>
+  <si>
+    <t>Необходимо отметить на ней места, которые ограничивают диапазоны выбросов.</t>
+  </si>
+  <si>
+    <t>Если имеются данные, которые лежат в этих диапозонах, то они и являются выбросами</t>
+  </si>
+  <si>
+    <t>5. Как стандартное отклонение помогает определить концентрацию данных и наличие потенциальных выбросов?</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение s определяет насколько далеко может быть значение данных от среднего значения набора данных.</t>
+  </si>
+  <si>
+    <t>Если s маленькое, то данные сильно сконцентрированны.</t>
+  </si>
+  <si>
+    <t>Если s велико, то вероятность наличия выбросов сильно возрастает.</t>
+  </si>
+  <si>
+    <t>6. Что представляет собой IQR в этой задаче?</t>
+  </si>
+  <si>
+    <t>IQR = 4</t>
+  </si>
+  <si>
+    <t>В моей задача IQR это разность между первыми 25 % детей и последними 25% детей по возрасту.
+Т.е. он говорит, что разница между первыми 25% и 75% детей по возрасту составляет 4 года.</t>
+  </si>
+  <si>
+    <t>7. Найдите значение, которое составляет 1.5 стандартных отклонения:</t>
+  </si>
+  <si>
+    <t>а. выше среднего _______</t>
+  </si>
+  <si>
+    <t>b. ниже среднего _______</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение s =</t>
+  </si>
+  <si>
+    <t>Характеризует разброс значений относительно среднего (Математического ожидания)</t>
+  </si>
+  <si>
+    <t>Характеризует разброс значений относительно среднего (Математического ожидания). Она используется, т.к. единицы её измерения совпадают с единицами измерения данных набора.</t>
+  </si>
+  <si>
+    <t>Среднеквадратичное (стандартное) отклонение ДЛЯ ВЫБРОРОЧНОЙ ДИСПЕРСИИ</t>
+  </si>
+  <si>
+    <t>Дисперсия выброчной совокупности
+(Выборочная дисперсия)</t>
+  </si>
+  <si>
+    <t>Дисперсия генеральной совокупности
+(Генеральная дисперсия)</t>
+  </si>
+  <si>
+    <t>Дисперсия генеральной совокупности и Среднеквадратичное отклонение генеральной совокупности
+Дисперсия выборочной совокупности и Среднеквадратичное отклонение выборочной дисперсии
+Эти понятия используются вместе друг с другом (попарно). 
+Т.к. при анализе данных иногда бывает удобнее использовать одни данные, а иногда - другие.</t>
+  </si>
+  <si>
+    <t>Используется для сравнения двух совокупностей. Отношение стандартного отклонения к среднему значению выборки.</t>
+  </si>
+  <si>
+    <t>Данная характеристика считается для каждого набора данных отдельно.
+При необходимости провести сравнения наборов данных часто сравнивают их коэф. Вариации.</t>
+  </si>
+  <si>
+    <t>Данный отступ необходим, чтобы было сразу понятно, что все данные набора попдают в интервал.
+Данный отступ опциональный.</t>
+  </si>
+  <si>
+    <t>Все данные распределить по интервалам в порядке возрастания: левая граница первого интервала должна быть меньше наименьшего из имеющихся значений</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Все данные распределить по интервалам в порядке возрастания: </t>
+      <t xml:space="preserve">К каким выбросам следует относить данные, значения которых попали ровно на границу Экстремального и умеренного выброса?
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>левая граница первого интервала должна быть меньше наименьшего из имеющихся значений</t>
+      <t>В рамках исследования это</t>
     </r>
-  </si>
-  <si>
-    <t>Почему? 
-Это обязательно?</t>
-  </si>
-  <si>
-    <t>Подсчитать частоту каждого интервала (Сколько данных в него входит)</t>
-  </si>
-  <si>
-    <t>По полученным данным построить гистограмму - столбчатую диаграмму, высота столбиков которой соответствует частоте попадания данных в каждый из интервалов:</t>
-  </si>
-  <si>
-    <t>Отчёт:</t>
-  </si>
-  <si>
-    <t>1) Первичная обработка данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экстремальный выброс - </t>
-  </si>
-  <si>
-    <t>значение данных, которое меньше, чем Q₁ – 3IQR или больше чем Q₁ + 3IQR</t>
-  </si>
-  <si>
-    <t>2) Исследовательский анализ данных</t>
-  </si>
-  <si>
-    <t>1. Определите следующие значения</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Q₁</t>
-  </si>
-  <si>
-    <t>Q₃</t>
-  </si>
-  <si>
-    <t>90-й процентиль</t>
-  </si>
-  <si>
-    <t>Процентиль -</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> указывает относительное положение значения данных, когда данные сортируются в числовом порядке от наименьшего к наибольшему.</t>
-  </si>
-  <si>
-    <t>Умеренный выброс</t>
-  </si>
-  <si>
-    <t>Экстремальный выброс</t>
-  </si>
-  <si>
-    <t>Вопрос:</t>
-  </si>
-  <si>
-    <t>К каким выбросам следует относить данные, значения которых попали ровно на границу Экстремального и умеренного выброса?</t>
-  </si>
-  <si>
-    <t>Ответ смотри левее в таблице с данными</t>
-  </si>
-  <si>
-    <t>Таблица границ выбросов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Умеренный выброс - </t>
-  </si>
-  <si>
-    <t>6. Есть ли умеренные и/или экстремальные выбросы?</t>
-  </si>
-  <si>
-    <t>значение данных, которое меньше, чем Q₁ – 1.5IQR или больше чем Q₁ + 1.5IQR и которое не является экстремальным выбросом</t>
-  </si>
-  <si>
-    <t>Мин. умеренный выброс слева</t>
-  </si>
-  <si>
-    <t>Мин. умеренный выброс справа</t>
-  </si>
-  <si>
-    <t>Мин. экстремальный выброс слева</t>
-  </si>
-  <si>
-    <t>Мин. экстремальный выброс справа</t>
-  </si>
-  <si>
-    <t>x =</t>
-  </si>
-  <si>
-    <t>интересующее знач1</t>
-  </si>
-  <si>
-    <t>интересующее знач2</t>
-  </si>
-  <si>
-    <t>Тест функции если вмести с ИЛИ</t>
-  </si>
-  <si>
-    <t>Включаю в умеренный выброс</t>
-  </si>
-  <si>
-    <t>Включаю в экстремальный выброс</t>
-  </si>
-  <si>
-    <t>Я решил зделать так:</t>
-  </si>
-  <si>
-    <t>2. Постройте коробковую диаграмму</t>
-  </si>
-  <si>
-    <t>3. Что форма диаграммы говорит о концентрации данных?</t>
-  </si>
-  <si>
-    <t>Коробчатая диаграмма показывает, что наибольшая часть детей находится в возрасте от 7 до 11 лет (между 1 и 3 квартилями)</t>
-  </si>
-  <si>
-    <t>4. Как с помощью коробковой диаграммы определить, есть ли потенциальные выбросы?</t>
-  </si>
-  <si>
-    <t>Необходимо отметить на ней места, которые ограничивают диапазоны выбросов.</t>
-  </si>
-  <si>
-    <t>Если имеются данные, которые лежат в этих диапозонах, то они и являются выбросами</t>
-  </si>
-  <si>
-    <t>5. Как стандартное отклонение помогает определить концентрацию данных и наличие потенциальных выбросов?</t>
-  </si>
-  <si>
-    <t>Стандартное отклонение s определяет насколько далеко может быть значение данных от среднего значения набора данных.</t>
-  </si>
-  <si>
-    <t>Если s маленькое, то данные сильно сконцентрированны.</t>
-  </si>
-  <si>
-    <t>Если s велико, то вероятность наличия выбросов сильно возрастает.</t>
-  </si>
-  <si>
-    <t>6. Что представляет собой IQR в этой задаче?</t>
-  </si>
-  <si>
-    <t>IQR = 4</t>
-  </si>
-  <si>
-    <t>В моей задача IQR это разность между первыми 25 % детей и последними 25% детей по возрасту.
-Т.е. он говорит, что разница между первыми 25% и 75% детей по возрасту составляет 4 года.</t>
-  </si>
-  <si>
-    <t>7. Найдите значение, которое составляет 1.5 стандартных отклонения:</t>
-  </si>
-  <si>
-    <t>а. выше среднего _______</t>
-  </si>
-  <si>
-    <t>b. ниже среднего _______</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среднее - медиана - Me = </t>
-  </si>
-  <si>
-    <t>Стандартное отклонение s =</t>
-  </si>
-  <si>
-    <t>ГОТОВО)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>опредяется. Включительно или нет - не принципиально. Главное везде использовать один подход.</t>
+    </r>
+  </si>
+  <si>
+    <t>Вывод:
+Обозначать выбросы данных удобно используя создание правил условного форматирования</t>
+  </si>
+  <si>
+    <t>О Медиане говорят серединное.</t>
+  </si>
+  <si>
+    <t>Выборочное среднее (Среднее)</t>
+  </si>
+  <si>
+    <t>Среднее - медиана - x¯ =</t>
+  </si>
+  <si>
+    <t>О среднем ар. говорят среднее. Здесь имеется в виду Среднее выборочное</t>
   </si>
 </sst>
 </file>
@@ -749,7 +782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,21 +802,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -866,13 +884,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="12"/>
@@ -892,8 +903,31 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +955,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,9 +1073,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1058,64 +1098,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1123,10 +1201,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -1148,7 +1223,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1240,6 +1351,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6249,7 +6363,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A3:A112" xr:uid="{F7355CAF-D7DF-4047-B615-B5852A22CC89}">
     <filterColumn colId="0">
       <filters>
@@ -6281,15 +6395,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A80:E82" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D02143E-CED5-4EAF-8EDB-EC484875FA1C}" name="Характеристика"/>
     <tableColumn id="2" xr3:uid="{43A56096-1CFC-4B83-AB9C-89958D88D71E}" name="Обозначение"/>
-    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="13">
       <calculatedColumnFormula>KURT(Возраст_детей[Возраст детей])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="12" dataCellStyle="Гиперссылка"/>
     <tableColumn id="5" xr3:uid="{50D3550F-D067-4B93-AC12-02BD33E7BA7C}" name="Как вычисляется"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6304,10 +6418,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="0" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="2" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6316,16 +6430,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6335,7 +6449,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6354,7 +6468,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A114:A205" xr:uid="{0C3BE30E-E423-4A9B-922E-7C0D88772F5C}">
     <filterColumn colId="0">
       <filters>
@@ -6385,7 +6499,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A207:A298" xr:uid="{5C34312A-418B-4C28-A139-43BE01BAC97B}">
     <filterColumn colId="0">
       <filters>
@@ -6437,8 +6551,8 @@
     <tableColumn id="1" xr3:uid="{F8E4884A-250F-4F19-B2C0-E61FDF84F2F5}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{1EC29F04-4823-4B3A-AE7E-B19DA62E8331}" name="Обозначение"/>
     <tableColumn id="2" xr3:uid="{AFAB9759-E248-4E42-8A70-F69818856D86}" name="Значение"/>
-    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6448,13 +6562,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A25:E30" totalsRowShown="0">
   <autoFilter ref="A25:E30" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика"/>
+    <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{E907B708-BCA0-47BB-BB90-35F22BBD3206}" name="Обозначение"/>
-    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="21">
       <calculatedColumnFormula>C17-C16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6464,7 +6578,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A37:B42" totalsRowShown="0">
   <autoFilter ref="A37:B42" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{36E62E90-8C4F-440E-AC06-29D346A5D69C}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6475,7 +6589,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A45:B50" totalsRowShown="0">
   <autoFilter ref="A45:B50" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{E713B8F4-E0AA-469B-AADF-9CE82893C1B0}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6751,7 +6865,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6760,12 +6874,12 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -6773,7 +6887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -6781,7 +6895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -6789,7 +6903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6797,7 +6911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6805,12 +6919,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6818,7 +6932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6841,7 +6955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6864,7 +6978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -6892,12 +7006,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -6925,7 +7039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -6953,7 +7067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -6965,7 +7079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -6973,17 +7087,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -6991,7 +7105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -6999,107 +7113,107 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -7107,7 +7221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -7115,262 +7229,262 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1">
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1">
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1">
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1">
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1">
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -7381,7 +7495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -7392,7 +7506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -7403,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -7414,7 +7528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -7425,7 +7539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -7436,7 +7550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -7447,7 +7561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -7458,7 +7572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -7469,7 +7583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -7480,7 +7594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -7491,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -7502,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -7513,7 +7627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -7524,7 +7638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -7535,7 +7649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -7546,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -7557,7 +7671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -7568,950 +7682,950 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1">
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1">
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1">
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1">
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1" hidden="1">
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:1" hidden="1">
+    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:1" hidden="1">
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:1" hidden="1">
+    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:1" hidden="1">
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:1" hidden="1">
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:1" hidden="1">
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:1" hidden="1">
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:1" hidden="1">
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:1" hidden="1">
+    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:1" hidden="1">
+    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:1" hidden="1">
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:1" hidden="1">
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:1" hidden="1">
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:1" hidden="1">
+    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:1" hidden="1">
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:1" hidden="1">
+    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:1" hidden="1">
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:1" hidden="1">
+    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:1" hidden="1">
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:1" hidden="1">
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:1" hidden="1">
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:1" hidden="1">
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1">
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:1" hidden="1">
+    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:1" hidden="1">
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:1" hidden="1">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:1" hidden="1">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:1" hidden="1">
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:1" hidden="1">
+    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1">
+    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:1" hidden="1">
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:1" hidden="1">
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:1" hidden="1">
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:1" hidden="1">
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:1" hidden="1">
+    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:1" hidden="1">
+    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:1" hidden="1">
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:1" hidden="1">
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:1" hidden="1">
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:1" hidden="1">
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:1" hidden="1">
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:1" hidden="1">
+    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:1" hidden="1">
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:1" hidden="1">
+    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:1" hidden="1">
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:1" hidden="1">
+    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:1" hidden="1">
+    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:1" hidden="1">
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:1" hidden="1">
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:1" hidden="1">
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:1" hidden="1">
+    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:1" hidden="1">
+    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:1" hidden="1">
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:1" hidden="1">
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:1" hidden="1">
+    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:1" hidden="1">
+    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:1" hidden="1">
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:1" hidden="1">
+    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:1" hidden="1">
+    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:1" hidden="1">
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:1" hidden="1">
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:1" hidden="1">
+    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:1" hidden="1">
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:1" hidden="1">
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:1" hidden="1">
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:1" hidden="1">
+    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:1" hidden="1">
+    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:1" hidden="1">
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:1" hidden="1">
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:1" hidden="1">
+    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:1" hidden="1">
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:1" hidden="1">
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:1" hidden="1">
+    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:1" hidden="1">
+    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:1" hidden="1">
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:1" hidden="1">
+    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:1" hidden="1">
+    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:1" hidden="1">
+    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:1" hidden="1">
+    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:1" hidden="1">
+    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:1" hidden="1">
+    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:1" hidden="1">
+    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:1" hidden="1">
+    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:1" hidden="1">
+    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:1" hidden="1">
+    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:1" hidden="1">
+    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:1" hidden="1">
+    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:1" hidden="1">
+    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:1" hidden="1">
+    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:1" hidden="1">
+    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:1" hidden="1">
+    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:1" hidden="1">
+    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:1" hidden="1">
+    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:1" hidden="1">
+    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:1" hidden="1">
+    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:1" hidden="1">
+    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:1" hidden="1">
+    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:1" hidden="1">
+    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:1" hidden="1">
+    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:1" hidden="1">
+    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:1" hidden="1">
+    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:1" hidden="1">
+    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:1" hidden="1">
+    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:1" hidden="1">
+    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:1" hidden="1">
+    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:1" hidden="1">
+    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:1" hidden="1">
+    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:1" hidden="1">
+    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:1" hidden="1">
+    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:1" hidden="1">
+    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:1" hidden="1">
+    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:1" hidden="1">
+    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:1" hidden="1">
+    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:1" hidden="1">
+    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:1" hidden="1">
+    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:1" hidden="1">
+    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:1" hidden="1">
+    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:1" hidden="1">
+    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:1" hidden="1">
+    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="305" spans="2:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>2</v>
       </c>
@@ -8522,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:6">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>3</v>
       </c>
@@ -8534,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:6">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>4</v>
       </c>
@@ -8546,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:6">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>4</v>
       </c>
@@ -8558,7 +8672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="2:6">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>4</v>
       </c>
@@ -8570,7 +8684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:6">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>5</v>
       </c>
@@ -8582,7 +8696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="2:6">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>5</v>
       </c>
@@ -8594,7 +8708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="2:6">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>5</v>
       </c>
@@ -8609,7 +8723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="2:6">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>5</v>
       </c>
@@ -8621,7 +8735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="2:6">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>5</v>
       </c>
@@ -8633,7 +8747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:6">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>6</v>
       </c>
@@ -8645,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="2:6">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>6</v>
       </c>
@@ -8657,7 +8771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="2:6">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>6</v>
       </c>
@@ -8669,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:6">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>6</v>
       </c>
@@ -8681,7 +8795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="2:6">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>6</v>
       </c>
@@ -8693,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:6">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>6</v>
       </c>
@@ -8705,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:5">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>6</v>
       </c>
@@ -8717,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:5">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>6</v>
       </c>
@@ -8729,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:5">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>6</v>
       </c>
@@ -8741,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:5">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>6</v>
       </c>
@@ -8753,377 +8867,377 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:5">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="2:5">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="2:5">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="2:5">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="2:5">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="2:5">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="2:5">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="2:5">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="2:5">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="2:5">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="2:5">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="2:5">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>27</v>
       </c>
@@ -9143,13 +9257,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA7EFD-5432-4866-B4C0-B52E7E03A82C}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -9158,111 +9272,111 @@
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <f>_xlfn.MODE.SNGL(Возраст_детей[Возраст детей])</f>
         <v>8</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="106.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <f>MEDIAN(Возраст_детей[Возраст детей])</f>
         <v>9</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="12">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="105">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
       </c>
       <c r="C16">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
         <v>7</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
       <c r="C17">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
@@ -9270,337 +9384,375 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="107.25" customHeight="1">
-      <c r="A26" t="s">
+    </row>
+    <row r="26" spans="1:15" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26">
+      <c r="C26" s="40">
         <f>C17-C16</f>
         <v>4</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="D26" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="42">
         <f>_xlfn.VAR.P(Возраст_детей[Возраст детей])</f>
         <v>16.574626038781162</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="93" customHeight="1">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="D27" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="G27" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+    </row>
+    <row r="28" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="45">
         <f>_xlfn.VAR.S(Возраст_детей[Возраст детей])</f>
         <v>16.750951847704371</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="75">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="D28" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+    </row>
+    <row r="29" spans="1:15" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="45">
         <f>SQRT(C28)</f>
         <v>4.0927926709893789</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="195">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="D29" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+    </row>
+    <row r="30" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="47">
         <f>C29/C15</f>
         <v>0.42586561198684669</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="21" t="s">
-        <v>84</v>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="21" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
         <f>MIN(Возраст_детей[Возраст детей])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="21" t="s">
-        <v>58</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="B39">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="21" t="s">
-        <v>71</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="B40">
         <f>MEDIAN(Возраст_детей[Возраст детей])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="21" t="s">
-        <v>60</v>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B41">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="21" t="s">
-        <v>87</v>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="B42">
         <f>MAX(Возраст_детей[Возраст детей])</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="21"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="21" t="s">
-        <v>89</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <f>B38</f>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="21" t="s">
-        <v>90</v>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B47">
         <f>B39-B46</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="21" t="s">
-        <v>94</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="B48">
         <f>B40-B39</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="21" t="s">
-        <v>91</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="B49">
         <f>B41-B39</f>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="21" t="s">
-        <v>92</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B50">
         <f>B42-B41</f>
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="21"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="21"/>
-    </row>
-    <row r="54" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="25" t="s">
+      <c r="E80" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="90">
+    </row>
+    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="19">
+        <v>92</v>
+      </c>
+      <c r="C81" s="18">
         <f>SKEW(Возраст_детей[Возраст детей])</f>
         <v>1.5182607207914853</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="75">
+      <c r="D81" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="19">
+        <v>91</v>
+      </c>
+      <c r="C82" s="18">
         <f>KURT(Возраст_детей[Возраст детей])</f>
         <v>4.026404197317472</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G27:O29"/>
+    <mergeCell ref="G30:O30"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D81" r:id="rId1" display="https://excel2.ru/articles/funkciya-raspredeleniya-i-plotnost-veroyatnosti-v-ms-excel" xr:uid="{097F1DB3-CD9D-4A52-A27A-36D025F1F1FA}"/>
   </hyperlinks>
@@ -9621,11 +9773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2C38E-6167-453C-8D40-81174ADCB121}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -9645,107 +9797,107 @@
     <col min="24" max="24" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>140</v>
+      <c r="B4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
         <v>42</v>
       </c>
-      <c r="V4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="str">
+      <c r="B5" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C5" s="42" t="str">
+      <c r="C5" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
-      </c>
-      <c r="U5" s="29" t="s">
-        <v>132</v>
+        <v>99</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="V5">
         <f>MIN(Возраст_детей[Возраст детей])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="42" t="str">
+      <c r="B6" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C6" s="42" t="str">
+      <c r="C6" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
       <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="V6">
@@ -9753,1579 +9905,1602 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30">
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="str">
+      <c r="B7" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C7" s="42" t="str">
+      <c r="C7" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="31">
+      <c r="N7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="51">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="29" t="s">
-        <v>133</v>
+      <c r="P7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="V7">
         <f>MAX(Возраст_детей[Возраст детей])</f>
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="60">
+    <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="42" t="str">
+      <c r="B8" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C8" s="42" t="str">
+      <c r="C8" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="12">
-        <f>SQRT(O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="29" t="s">
-        <v>134</v>
+      <c r="M8" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="45">
+        <f>SQRT('2 Исследовательский анализ дан'!C28)</f>
+        <v>4.0927926709893789</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="U8" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="V8">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="42" t="str">
+      <c r="B9" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C9" s="42" t="str">
+      <c r="C9" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="U9" s="29" t="s">
-        <v>135</v>
+      <c r="U9" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="V9">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="42" t="str">
+      <c r="B10" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C10" s="42" t="str">
+      <c r="C10" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="29" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="V10">
         <f>V9-V8</f>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="60">
+    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="42" t="str">
+      <c r="B11" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="U11" s="29" t="s">
-        <v>136</v>
+      <c r="U11" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="V11">
         <f>_xlfn.PERCENTILE.INC(Возраст_детей[Возраст детей],0.9)</f>
         <v>14</v>
       </c>
-      <c r="W11" s="41" t="s">
-        <v>137</v>
+      <c r="W11" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C12" s="42" t="str">
+      <c r="C12" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M12" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75">
+      <c r="M12" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="42" t="str">
+      <c r="B13" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C13" s="42" t="str">
+      <c r="C13" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M13" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="M13" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="42" t="str">
+      <c r="B14" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C14" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="42" t="str">
+      <c r="B15" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C15" s="42" t="str">
+      <c r="C15" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="M15" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="42" t="str">
+      <c r="B16" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C16" s="42" t="str">
+      <c r="C16" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="42" t="str">
+      <c r="B17" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C17" s="42" t="str">
+      <c r="C17" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
-      <c r="B18" s="42" t="str">
+      <c r="B18" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C18" s="42" t="str">
+      <c r="C18" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
-      <c r="B19" s="42" t="str">
+      <c r="B19" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C19" s="42" t="str">
+      <c r="C19" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="42" t="str">
+      <c r="B20" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C20" s="42" t="str">
+      <c r="C20" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="42" t="str">
+      <c r="B22" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="42" t="str">
+      <c r="B23" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B24" s="42" t="str">
+      <c r="B24" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C24" s="42" t="str">
+      <c r="C24" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="54">
         <v>1</v>
       </c>
-      <c r="M24" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30">
+      <c r="M24" s="55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
-      <c r="B25" s="42" t="str">
+      <c r="B25" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C25" s="42" t="str">
+      <c r="C25" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="40">
         <v>2</v>
       </c>
-      <c r="M25" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="45">
+      <c r="M25" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
-      <c r="B26" s="42" t="str">
+      <c r="B26" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="L26" s="40">
+        <v>3</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
-      <c r="B27" s="42" t="str">
+      <c r="B27" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C27" s="42" t="str">
+      <c r="C27" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M27" s="38"/>
-    </row>
-    <row r="28" spans="1:21" ht="60">
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="42" t="str">
+      <c r="B28" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="54">
         <v>4</v>
       </c>
-      <c r="M28" s="37" t="s">
-        <v>121</v>
+      <c r="M28" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="60">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="42" t="str">
+      <c r="B29" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C29" s="42" t="str">
+      <c r="C29" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="54">
         <v>5</v>
       </c>
-      <c r="M29" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="M29" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
       <c r="U29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="54">
         <v>6</v>
       </c>
-      <c r="M30" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="75">
+      <c r="M30" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7</v>
       </c>
-      <c r="B31" s="42" t="str">
+      <c r="B31" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C31" s="42" t="str">
+      <c r="C31" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="54">
         <v>7</v>
       </c>
-      <c r="M31" s="37" t="s">
-        <v>125</v>
+      <c r="M31" s="55" t="s">
+        <v>114</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C32" s="42" t="str">
+      <c r="C32" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L32" s="36"/>
+      <c r="L32" s="29"/>
       <c r="U32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="123.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8</v>
       </c>
-      <c r="B33" s="42" t="str">
+      <c r="B33" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C33" s="42" t="str">
+      <c r="C33" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>145</v>
+      <c r="F33" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="U33" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>134</v>
+      </c>
+      <c r="U33" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
-      <c r="B34" s="42" t="str">
+      <c r="B34" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C34" s="42" t="str">
+      <c r="C34" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8</v>
       </c>
-      <c r="B35" s="42" t="str">
+      <c r="B35" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C35" s="42" t="str">
+      <c r="C35" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M35" t="s">
-        <v>143</v>
-      </c>
-      <c r="P35" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="75">
+        <v>131</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
-      <c r="B36" s="42" t="str">
+      <c r="B36" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C36" s="42" t="str">
+      <c r="C36" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="F36" s="39" t="s">
-        <v>128</v>
+      <c r="F36" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>132</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="42" t="str">
+      <c r="B37" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C37" s="42" t="str">
+      <c r="C37" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" t="s">
         <v>42</v>
       </c>
-      <c r="N37" t="s">
-        <v>43</v>
-      </c>
       <c r="U37" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8</v>
       </c>
-      <c r="B38" s="42" t="str">
+      <c r="B38" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C38" s="42" t="str">
+      <c r="C38" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N38">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C39" s="42" t="str">
+      <c r="C39" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N39">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
         <v>11</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
-      </c>
-      <c r="U39" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>146</v>
+      </c>
+      <c r="U39" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8</v>
       </c>
-      <c r="B40" s="42" t="str">
+      <c r="B40" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C40" s="42" t="str">
+      <c r="C40" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N40">
         <f>N39-N38</f>
         <v>4</v>
       </c>
       <c r="U40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="42" t="str">
+      <c r="B41" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C41" s="42" t="str">
+      <c r="C41" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N41">
         <f>N38-1.5*N40</f>
         <v>1</v>
       </c>
       <c r="P41" t="s">
+        <v>144</v>
+      </c>
+      <c r="U41" t="s">
         <v>156</v>
       </c>
-      <c r="U41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8</v>
       </c>
-      <c r="B42" s="42" t="str">
+      <c r="B42" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C42" s="42" t="str">
+      <c r="C42" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="N42">
         <f>N38+1.5*N40</f>
         <v>13</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8</v>
       </c>
-      <c r="B43" s="42" t="str">
+      <c r="B43" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C43" s="42" t="str">
+      <c r="C43" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M43" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="N43">
         <f>N38-3*N40</f>
         <v>-5</v>
       </c>
       <c r="P43" t="s">
+        <v>145</v>
+      </c>
+      <c r="U43" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="U43" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
-      <c r="B44" s="42" t="str">
+      <c r="B44" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C44" s="42" t="str">
+      <c r="C44" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="M44" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="N44">
         <f>N38+3*N40</f>
         <v>19</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="U44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="90">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>8</v>
       </c>
-      <c r="B45" s="42" t="str">
+      <c r="B45" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C45" s="42" t="str">
+      <c r="C45" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
+      <c r="M45" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="U45" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B46" s="42" t="str">
+      <c r="B46" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C46" s="42" t="str">
+      <c r="C46" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
-      <c r="B47" s="42" t="str">
+      <c r="B47" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C47" s="42" t="str">
+      <c r="C47" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="U47" s="48" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="U47" s="38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>8</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C48" s="42" t="str">
+      <c r="C48" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="U48" t="s">
-        <v>175</v>
-      </c>
-      <c r="V48">
-        <f>MEDIAN(Возраст_детей[Возраст детей])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>178</v>
+      </c>
+      <c r="V48" s="12">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="X48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9</v>
       </c>
-      <c r="B49" s="42" t="str">
+      <c r="B49" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C49" s="42" t="str">
+      <c r="C49" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="U49" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="V49" s="12">
         <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
         <v>4.0927926709893789</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="X49" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
-      <c r="B50" s="42" t="str">
+      <c r="B50" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C50" s="42" t="str">
+      <c r="C50" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="U50" s="47" t="s">
-        <v>173</v>
+      <c r="U50" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="V50" s="12">
         <f>V48+1.5*V49</f>
-        <v>15.139189006484068</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>15.749715322273541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>9</v>
       </c>
-      <c r="B51" s="42" t="str">
+      <c r="B51" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C51" s="42" t="str">
+      <c r="C51" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
-      </c>
-      <c r="U51" s="47" t="s">
-        <v>174</v>
+        <v>143</v>
+      </c>
+      <c r="U51" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="V51" s="12">
         <f>V48-1.5*V49</f>
-        <v>2.8608109935159316</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>3.4713373093054045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="B52" s="42" t="str">
+      <c r="B52" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C52" s="42" t="str">
+      <c r="C52" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="L52" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L52" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>9</v>
       </c>
-      <c r="B53" s="42" t="str">
+      <c r="B53" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C53" s="42" t="str">
+      <c r="C53" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H53" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44">
+      <c r="H53" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34">
         <v>1</v>
       </c>
-      <c r="L53" s="44"/>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="L53" s="34"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>9</v>
       </c>
-      <c r="B54" s="42" t="str">
+      <c r="B54" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C54" s="42" t="str">
+      <c r="C54" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H54" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44">
+      <c r="H54" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34">
         <v>2</v>
       </c>
-      <c r="L54" s="44"/>
-      <c r="U54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="L54" s="34"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9</v>
       </c>
-      <c r="B55" s="42" t="str">
+      <c r="B55" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C55" s="42" t="str">
+      <c r="C55" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
-      <c r="B56" s="42" t="str">
+      <c r="B56" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C56" s="42" t="str">
+      <c r="C56" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44" t="str">
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34" t="str">
         <f>IF(OR(L52=K53,L52=K54),"1 или 2","не 1 или 2")</f>
         <v>не 1 или 2</v>
       </c>
-      <c r="L56" s="44"/>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="L56" s="34"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C57" s="42" t="str">
+      <c r="C57" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10</v>
       </c>
-      <c r="B58" s="42" t="str">
+      <c r="B58" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C58" s="42" t="str">
+      <c r="C58" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10</v>
       </c>
-      <c r="B59" s="42" t="str">
+      <c r="B59" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C59" s="42" t="str">
+      <c r="C59" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="B60" s="42" t="str">
+      <c r="B60" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C60" s="42" t="str">
+      <c r="C60" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>10</v>
       </c>
-      <c r="B61" s="42" t="str">
+      <c r="B61" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C61" s="42" t="str">
+      <c r="C61" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>10</v>
       </c>
-      <c r="B62" s="42" t="str">
+      <c r="B62" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C62" s="42" t="str">
+      <c r="C62" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>10</v>
       </c>
-      <c r="B63" s="42" t="str">
+      <c r="B63" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C63" s="42" t="str">
+      <c r="C63" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>10</v>
       </c>
-      <c r="B64" s="42" t="str">
+      <c r="B64" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C64" s="42" t="str">
+      <c r="C64" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>11</v>
       </c>
-      <c r="B65" s="42" t="str">
+      <c r="B65" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C65" s="42" t="str">
+      <c r="C65" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>11</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C66" s="42" t="str">
+      <c r="C66" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>11</v>
       </c>
-      <c r="B67" s="42" t="str">
+      <c r="B67" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C67" s="42" t="str">
+      <c r="C67" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>11</v>
       </c>
-      <c r="B68" s="42" t="str">
+      <c r="B68" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C68" s="42" t="str">
+      <c r="C68" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>11</v>
       </c>
-      <c r="B69" s="42" t="str">
+      <c r="B69" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C69" s="42" t="str">
+      <c r="C69" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>11</v>
       </c>
-      <c r="B70" s="42" t="str">
+      <c r="B70" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C70" s="42" t="str">
+      <c r="C70" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>11</v>
       </c>
-      <c r="B71" s="42" t="str">
+      <c r="B71" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C71" s="42" t="str">
+      <c r="C71" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>11</v>
       </c>
-      <c r="B72" s="42" t="str">
+      <c r="B72" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C72" s="42" t="str">
+      <c r="C72" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>11</v>
       </c>
-      <c r="B73" s="42" t="str">
+      <c r="B73" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C73" s="42" t="str">
+      <c r="C73" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>11</v>
       </c>
-      <c r="B74" s="42" t="str">
+      <c r="B74" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C74" s="42" t="str">
+      <c r="C74" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>11</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C75" s="42" t="str">
+      <c r="C75" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>11</v>
       </c>
-      <c r="B76" s="42" t="str">
+      <c r="B76" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C76" s="42" t="str">
+      <c r="C76" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>11</v>
       </c>
-      <c r="B77" s="42" t="str">
+      <c r="B77" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C77" s="42" t="str">
+      <c r="C77" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>11</v>
       </c>
-      <c r="B78" s="42" t="str">
+      <c r="B78" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C78" s="42" t="str">
+      <c r="C78" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>11</v>
       </c>
-      <c r="B79" s="42" t="str">
+      <c r="B79" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C79" s="42" t="str">
+      <c r="C79" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>12</v>
       </c>
-      <c r="B80" s="42" t="str">
+      <c r="B80" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C80" s="42" t="str">
+      <c r="C80" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>12</v>
       </c>
-      <c r="B81" s="42" t="str">
+      <c r="B81" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C81" s="42" t="str">
+      <c r="C81" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>12</v>
       </c>
-      <c r="B82" s="42" t="str">
+      <c r="B82" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C82" s="42" t="str">
+      <c r="C82" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>12</v>
       </c>
-      <c r="B83" s="42" t="str">
+      <c r="B83" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C83" s="42" t="str">
+      <c r="C83" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>12</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C84" s="42" t="str">
+      <c r="C84" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>12</v>
       </c>
-      <c r="B85" s="42" t="str">
+      <c r="B85" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C85" s="42" t="str">
+      <c r="C85" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>13</v>
       </c>
-      <c r="B86" s="42" t="str">
+      <c r="B86" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C86" s="42" t="str">
+      <c r="C86" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>14</v>
       </c>
-      <c r="B87" s="42" t="str">
+      <c r="B87" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C87" s="42" t="str">
+      <c r="C87" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>14</v>
       </c>
-      <c r="B88" s="42" t="str">
+      <c r="B88" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C88" s="42" t="str">
+      <c r="C88" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>14</v>
       </c>
-      <c r="B89" s="42" t="str">
+      <c r="B89" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C89" s="42" t="str">
+      <c r="C89" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>14</v>
       </c>
-      <c r="B90" s="42" t="str">
+      <c r="B90" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C90" s="42" t="str">
+      <c r="C90" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>14</v>
       </c>
-      <c r="B91" s="42" t="str">
+      <c r="B91" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C91" s="42" t="str">
+      <c r="C91" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>14</v>
       </c>
-      <c r="B92" s="42" t="str">
+      <c r="B92" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C92" s="42" t="str">
+      <c r="C92" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>14</v>
       </c>
-      <c r="B93" s="42" t="str">
+      <c r="B93" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C93" s="42" t="str">
+      <c r="C93" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>15</v>
       </c>
-      <c r="B94" s="42" t="str">
+      <c r="B94" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Да</v>
       </c>
-      <c r="C94" s="42" t="str">
+      <c r="C94" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>19</v>
       </c>
-      <c r="B95" s="42" t="str">
+      <c r="B95" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C95" s="42" t="str">
+      <c r="C95" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Да</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>20</v>
       </c>
-      <c r="B96" s="42" t="str">
+      <c r="B96" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C96" s="42" t="str">
+      <c r="C96" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Да</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>21</v>
       </c>
-      <c r="B97" s="42" t="str">
+      <c r="B97" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C97" s="42" t="str">
+      <c r="C97" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Да</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>23</v>
       </c>
-      <c r="B98" s="42" t="str">
+      <c r="B98" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C98" s="42" t="str">
+      <c r="C98" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Да</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>27</v>
       </c>
-      <c r="B99" s="42" t="str">
+      <c r="B99" s="33" t="str">
         <f>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="C99" s="42" t="str">
+      <c r="C99" s="33" t="str">
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Да</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N29:P29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A5:A99">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThanOrEqual">
+      <formula>$N$44</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+      <formula>$N$41</formula>
+      <formula>$N$43</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+      <formula>$N$42</formula>
+      <formula>$N$44</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="4">

--- a/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
+++ b/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\5 Раздел Исследовательский анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE49F17-3007-4C57-84B0-990D786526DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8CF7F-FF59-499A-B018-AE818B124505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1 Первичная обработка данных" sheetId="6" r:id="rId1"/>
     <sheet name="2 Исследовательский анализ дан" sheetId="7" r:id="rId2"/>
     <sheet name="Отчёт" sheetId="8" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="181">
   <si>
     <t>Частота</t>
   </si>
@@ -648,9 +649,6 @@
     <t>Необходимо отметить на ней места, которые ограничивают диапазоны выбросов.</t>
   </si>
   <si>
-    <t>Если имеются данные, которые лежат в этих диапозонах, то они и являются выбросами</t>
-  </si>
-  <si>
     <t>5. Как стандартное отклонение помогает определить концентрацию данных и наличие потенциальных выбросов?</t>
   </si>
   <si>
@@ -774,6 +772,12 @@
   <si>
     <t>О среднем ар. говорят среднее. Здесь имеется в виду Среднее выборочное</t>
   </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+  <si>
+    <t>Если имеются данные, которые лежат в этих диапазонах, то они и являются выбросами</t>
+  </si>
 </sst>
 </file>
 
@@ -782,7 +786,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,7 +1079,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1126,9 +1130,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1192,8 +1193,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1201,7 +1211,67 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6363,7 +6433,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A3:A112" xr:uid="{F7355CAF-D7DF-4047-B615-B5852A22CC89}">
     <filterColumn colId="0">
       <filters>
@@ -6395,15 +6465,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A80:E82" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D02143E-CED5-4EAF-8EDB-EC484875FA1C}" name="Характеристика"/>
     <tableColumn id="2" xr3:uid="{43A56096-1CFC-4B83-AB9C-89958D88D71E}" name="Обозначение"/>
-    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="25">
       <calculatedColumnFormula>KURT(Возраст_детей[Возраст детей])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="12" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="24" dataCellStyle="Гиперссылка"/>
     <tableColumn id="5" xr3:uid="{50D3550F-D067-4B93-AC12-02BD33E7BA7C}" name="Как вычисляется"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6418,10 +6488,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="20" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="19" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6430,16 +6500,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="15">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6449,7 +6519,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6468,7 +6538,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A114:A205" xr:uid="{0C3BE30E-E423-4A9B-922E-7C0D88772F5C}">
     <filterColumn colId="0">
       <filters>
@@ -6499,7 +6569,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A207:A298" xr:uid="{5C34312A-418B-4C28-A139-43BE01BAC97B}">
     <filterColumn colId="0">
       <filters>
@@ -6551,8 +6621,8 @@
     <tableColumn id="1" xr3:uid="{F8E4884A-250F-4F19-B2C0-E61FDF84F2F5}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{1EC29F04-4823-4B3A-AE7E-B19DA62E8331}" name="Обозначение"/>
     <tableColumn id="2" xr3:uid="{AFAB9759-E248-4E42-8A70-F69818856D86}" name="Значение"/>
-    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6562,13 +6632,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A25:E30" totalsRowShown="0">
   <autoFilter ref="A25:E30" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{E907B708-BCA0-47BB-BB90-35F22BBD3206}" name="Обозначение"/>
-    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="33">
       <calculatedColumnFormula>C17-C16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6578,7 +6648,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A37:B42" totalsRowShown="0">
   <autoFilter ref="A37:B42" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{36E62E90-8C4F-440E-AC06-29D346A5D69C}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6589,7 +6659,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A45:B50" totalsRowShown="0">
   <autoFilter ref="A45:B50" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{E713B8F4-E0AA-469B-AADF-9CE82893C1B0}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6865,7 +6935,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6874,12 +6944,12 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -6887,7 +6957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -6895,7 +6965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -6903,7 +6973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6911,7 +6981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6919,12 +6989,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6932,7 +7002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6955,7 +7025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6978,7 +7048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -7006,12 +7076,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -7039,7 +7109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -7067,7 +7137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -7079,7 +7149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -7087,17 +7157,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -7105,7 +7175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -7113,107 +7183,107 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -7221,7 +7291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -7229,262 +7299,262 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" hidden="1">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" hidden="1">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" hidden="1">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" hidden="1">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" hidden="1">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" hidden="1">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" hidden="1">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" hidden="1">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" hidden="1">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -7495,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -7506,7 +7576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -7517,7 +7587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -7528,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -7539,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -7550,7 +7620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -7561,7 +7631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -7583,7 +7653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -7594,7 +7664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -7605,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -7616,7 +7686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -7627,7 +7697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -7638,7 +7708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -7649,7 +7719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -7660,7 +7730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -7671,7 +7741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -7682,942 +7752,942 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" hidden="1">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" hidden="1">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" hidden="1">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" hidden="1">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" hidden="1">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" hidden="1">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" hidden="1">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" hidden="1">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" hidden="1">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" hidden="1">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" hidden="1">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" hidden="1">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" hidden="1">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" hidden="1">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" hidden="1">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" hidden="1">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" hidden="1">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" hidden="1">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" hidden="1">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" hidden="1">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" hidden="1">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" hidden="1">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" hidden="1">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" hidden="1">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" hidden="1">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" hidden="1">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" hidden="1">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" hidden="1">
       <c r="A163" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" hidden="1">
       <c r="A164" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" hidden="1">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" hidden="1">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" hidden="1">
       <c r="A168" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" hidden="1">
       <c r="A169" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" hidden="1">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" hidden="1">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" hidden="1">
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" hidden="1">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" hidden="1">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" hidden="1">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" hidden="1">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" hidden="1">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" hidden="1">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" hidden="1">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" hidden="1">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" hidden="1">
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" hidden="1">
       <c r="A184" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" hidden="1">
       <c r="A185" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" hidden="1">
       <c r="A187" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" hidden="1">
       <c r="A188" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" hidden="1">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" hidden="1">
       <c r="A190" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" hidden="1">
       <c r="A191" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" hidden="1">
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" hidden="1">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" hidden="1">
       <c r="A197" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" hidden="1">
       <c r="A200" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" hidden="1">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" hidden="1">
       <c r="A202" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" hidden="1">
       <c r="A203" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" hidden="1">
       <c r="A204" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" hidden="1">
       <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" hidden="1">
       <c r="A208" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" hidden="1">
       <c r="A209" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" hidden="1">
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" hidden="1">
       <c r="A211" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" hidden="1">
       <c r="A212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" hidden="1">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" hidden="1">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" hidden="1">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" hidden="1">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" hidden="1">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" hidden="1">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" hidden="1">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" hidden="1">
       <c r="A220" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" hidden="1">
       <c r="A221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" hidden="1">
       <c r="A222" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" hidden="1">
       <c r="A223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" hidden="1">
       <c r="A224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" hidden="1">
       <c r="A226" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" hidden="1">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" hidden="1">
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" hidden="1">
       <c r="A229" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" hidden="1">
       <c r="A230" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" hidden="1">
       <c r="A231" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" hidden="1">
       <c r="A232" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" hidden="1">
       <c r="A233" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" hidden="1">
       <c r="A234" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" hidden="1">
       <c r="A235" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" hidden="1">
       <c r="A236" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" hidden="1">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" hidden="1">
       <c r="A238" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" hidden="1">
       <c r="A239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" hidden="1">
       <c r="A240" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" hidden="1">
       <c r="A241" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" hidden="1">
       <c r="A242" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" hidden="1">
       <c r="A243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" hidden="1">
       <c r="A244" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" hidden="1">
       <c r="A245" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" hidden="1">
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" hidden="1">
       <c r="A247" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" hidden="1">
       <c r="A248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" hidden="1">
       <c r="A249" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" hidden="1">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" hidden="1">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" hidden="1">
       <c r="A252" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" hidden="1">
       <c r="A253" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" hidden="1">
       <c r="A254" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" hidden="1">
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" hidden="1">
       <c r="A256" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" hidden="1">
       <c r="A257" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" hidden="1">
       <c r="A258" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" hidden="1">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" hidden="1">
       <c r="A260" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" hidden="1">
       <c r="A261" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" hidden="1">
       <c r="A262" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" hidden="1">
       <c r="A263" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" hidden="1">
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" hidden="1">
       <c r="A265" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" hidden="1">
       <c r="A266" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" hidden="1">
       <c r="A267" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" hidden="1">
       <c r="A268" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" hidden="1">
       <c r="A269" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" hidden="1">
       <c r="A270" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" hidden="1">
       <c r="A272" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" hidden="1">
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" hidden="1">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" hidden="1">
       <c r="A275" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" hidden="1">
       <c r="A276" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" hidden="1">
       <c r="A278" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" hidden="1">
       <c r="A279" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" hidden="1">
       <c r="A281" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" hidden="1">
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" hidden="1">
       <c r="A283" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" hidden="1">
       <c r="A284" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" hidden="1">
       <c r="A285" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" hidden="1">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" hidden="1">
       <c r="A287" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" hidden="1">
       <c r="A288" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1">
       <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1">
       <c r="A295" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1">
       <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1">
       <c r="A297" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1">
       <c r="A298" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4">
       <c r="B299" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4">
       <c r="B300" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4">
       <c r="B302" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4">
       <c r="B304" s="1" t="s">
         <v>38</v>
       </c>
@@ -8625,7 +8695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6">
       <c r="B305" s="1">
         <v>2</v>
       </c>
@@ -8636,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6">
       <c r="B306" s="1">
         <v>3</v>
       </c>
@@ -8648,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6">
       <c r="B307" s="1">
         <v>4</v>
       </c>
@@ -8660,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6">
       <c r="B308" s="1">
         <v>4</v>
       </c>
@@ -8672,7 +8742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6">
       <c r="B309" s="1">
         <v>4</v>
       </c>
@@ -8684,7 +8754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6">
       <c r="B310" s="1">
         <v>5</v>
       </c>
@@ -8696,7 +8766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6">
       <c r="B311" s="1">
         <v>5</v>
       </c>
@@ -8708,7 +8778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6">
       <c r="B312" s="1">
         <v>5</v>
       </c>
@@ -8723,7 +8793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6">
       <c r="B313" s="1">
         <v>5</v>
       </c>
@@ -8735,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6">
       <c r="B314" s="1">
         <v>5</v>
       </c>
@@ -8747,7 +8817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6">
       <c r="B315" s="1">
         <v>6</v>
       </c>
@@ -8759,7 +8829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6">
       <c r="B316" s="1">
         <v>6</v>
       </c>
@@ -8771,7 +8841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6">
       <c r="B317" s="1">
         <v>6</v>
       </c>
@@ -8783,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6">
       <c r="B318" s="1">
         <v>6</v>
       </c>
@@ -8795,7 +8865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6">
       <c r="B319" s="1">
         <v>6</v>
       </c>
@@ -8807,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6">
       <c r="B320" s="1">
         <v>6</v>
       </c>
@@ -8819,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5">
       <c r="B321" s="1">
         <v>6</v>
       </c>
@@ -8831,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5">
       <c r="B322" s="1">
         <v>6</v>
       </c>
@@ -8843,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5">
       <c r="B323" s="1">
         <v>6</v>
       </c>
@@ -8855,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5">
       <c r="B324" s="1">
         <v>6</v>
       </c>
@@ -8867,377 +8937,377 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5">
       <c r="B325" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5">
       <c r="B326" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5">
       <c r="B327" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5">
       <c r="B328" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5">
       <c r="B329" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5">
       <c r="B330" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5">
       <c r="B331" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5">
       <c r="B332" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5">
       <c r="B333" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5">
       <c r="B334" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5">
       <c r="B335" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5">
       <c r="B336" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2">
       <c r="B399" s="1">
         <v>27</v>
       </c>
@@ -9263,7 +9333,7 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -9272,17 +9342,17 @@
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -9299,7 +9369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9317,7 +9387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="106.5" customHeight="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -9335,9 +9405,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -9353,7 +9423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="105">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -9371,7 +9441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -9387,19 +9457,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="13"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -9416,14 +9486,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="107.25" customHeight="1">
       <c r="A26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="39">
         <f>C17-C16</f>
         <v>4</v>
       </c>
@@ -9434,134 +9504,134 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="41" t="s">
+    <row r="27" spans="1:15" ht="64.5" customHeight="1">
+      <c r="A27" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <f>_xlfn.VAR.P(Возраст_детей[Возраст детей])</f>
         <v>16.574626038781162</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="G27" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-    </row>
-    <row r="28" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="G27" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+    </row>
+    <row r="28" spans="1:15" ht="93" customHeight="1">
       <c r="A28" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="44">
         <f>_xlfn.VAR.S(Возраст_детей[Возраст детей])</f>
         <v>16.750951847704371</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>164</v>
+      <c r="D28" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-    </row>
-    <row r="29" spans="1:15" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+    </row>
+    <row r="29" spans="1:15" ht="162" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="44">
         <f>SQRT(C28)</f>
         <v>4.0927926709893789</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>165</v>
+      <c r="D29" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-    </row>
-    <row r="30" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="1:15" ht="90">
       <c r="A30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="46">
         <f>C29/C15</f>
         <v>0.42586561198684669</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>170</v>
+      <c r="D30" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G30" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
         <v>75</v>
       </c>
@@ -9569,7 +9639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
         <v>77</v>
       </c>
@@ -9578,7 +9648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="19" t="s">
         <v>57</v>
       </c>
@@ -9587,7 +9657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="19" t="s">
         <v>69</v>
       </c>
@@ -9596,7 +9666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
         <v>59</v>
       </c>
@@ -9605,7 +9675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="19" t="s">
         <v>78</v>
       </c>
@@ -9614,15 +9684,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="19"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
         <v>80</v>
       </c>
@@ -9630,7 +9700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -9639,7 +9709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
         <v>81</v>
       </c>
@@ -9648,7 +9718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="19" t="s">
         <v>85</v>
       </c>
@@ -9657,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
         <v>82</v>
       </c>
@@ -9666,7 +9736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="19" t="s">
         <v>83</v>
       </c>
@@ -9675,33 +9745,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="19"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="19"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="E54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="E55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="22" t="s">
         <v>41</v>
       </c>
@@ -9718,7 +9788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="90">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -9733,7 +9803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="75">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -9773,11 +9843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2C38E-6167-453C-8D40-81174ADCB121}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="P39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -9797,7 +9867,7 @@
     <col min="24" max="24" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="31" t="s">
         <v>115</v>
       </c>
@@ -9811,7 +9881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
@@ -9827,7 +9897,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -9847,7 +9917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9870,7 +9940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -9905,7 +9975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -9917,20 +9987,20 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="50">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="53" t="s">
+      <c r="Q7" s="52" t="s">
         <v>63</v>
       </c>
       <c r="U7" s="25" t="s">
@@ -9941,7 +10011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="105">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -9954,17 +10024,17 @@
         <v>Нет</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="N8" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="N8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="44">
         <f>SQRT('2 Исследовательский анализ дан'!C28)</f>
         <v>4.0927926709893789</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="27" t="s">
         <v>71</v>
@@ -9978,7 +10048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -9998,7 +10068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -10021,7 +10091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="60">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -10047,7 +10117,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -10063,7 +10133,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -10079,7 +10149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -10095,7 +10165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -10111,7 +10181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -10127,7 +10197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -10143,7 +10213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -10156,7 +10226,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -10169,7 +10239,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -10185,7 +10255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -10201,7 +10271,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -10214,7 +10284,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -10226,11 +10296,14 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
       <c r="M23" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -10242,14 +10315,14 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="53">
         <v>1</v>
       </c>
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -10261,14 +10334,14 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="39">
         <v>2</v>
       </c>
-      <c r="M25" s="55" t="s">
+      <c r="M25" s="54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="45">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -10280,14 +10353,14 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L26" s="40">
-        <v>3</v>
-      </c>
-      <c r="M26" s="55" t="s">
+      <c r="L26" s="39">
+        <v>3</v>
+      </c>
+      <c r="M26" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -10299,10 +10372,10 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-    </row>
-    <row r="28" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="1:21" ht="60">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -10314,17 +10387,17 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="53">
         <v>4</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="M28" s="54" t="s">
         <v>112</v>
       </c>
       <c r="U28" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="120" customHeight="1">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -10336,22 +10409,22 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="53">
         <v>5</v>
       </c>
-      <c r="M29" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="N29" s="58" t="s">
+      <c r="M29" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="U29" t="s">
+      <c r="N29" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="U29" s="55" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -10363,14 +10436,14 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="53">
         <v>6</v>
       </c>
-      <c r="M30" s="55" t="s">
+      <c r="M30" s="54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="75">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -10382,17 +10455,17 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="53">
         <v>7</v>
       </c>
-      <c r="M31" s="55" t="s">
+      <c r="M31" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="U31" s="14" t="s">
+      <c r="U31" s="60" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -10405,11 +10478,11 @@
         <v>Нет</v>
       </c>
       <c r="L32" s="29"/>
-      <c r="U32" t="s">
+      <c r="U32" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="123.75" customHeight="1">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -10430,11 +10503,11 @@
       <c r="M33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U33" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -10447,7 +10520,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -10466,7 +10539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="165">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -10487,11 +10560,11 @@
       <c r="M36" t="s">
         <v>132</v>
       </c>
-      <c r="P36" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P36" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -10510,10 +10583,10 @@
         <v>42</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -10533,7 +10606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -10556,10 +10629,10 @@
         <v>146</v>
       </c>
       <c r="U39" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -10579,10 +10652,10 @@
         <v>4</v>
       </c>
       <c r="U40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -10605,10 +10678,10 @@
         <v>144</v>
       </c>
       <c r="U41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -10631,7 +10704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -10654,10 +10727,10 @@
         <v>145</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -10680,10 +10753,10 @@
         <v>145</v>
       </c>
       <c r="U44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="90">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -10696,13 +10769,13 @@
         <v>Нет</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -10715,7 +10788,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -10727,11 +10800,11 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="U47" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U47" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1">
         <v>8</v>
       </c>
@@ -10744,17 +10817,17 @@
         <v>Нет</v>
       </c>
       <c r="U48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V48" s="12">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
       <c r="X48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="30">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -10767,17 +10840,17 @@
         <v>Нет</v>
       </c>
       <c r="U49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V49" s="12">
         <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
         <v>4.0927926709893789</v>
       </c>
       <c r="X49" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -10789,15 +10862,15 @@
         <f>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</f>
         <v>Нет</v>
       </c>
-      <c r="U50" s="37" t="s">
-        <v>161</v>
+      <c r="U50" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="V50" s="12">
         <f>V48+1.5*V49</f>
         <v>15.749715322273541</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" s="1">
         <v>9</v>
       </c>
@@ -10812,15 +10885,15 @@
       <c r="H51" t="s">
         <v>143</v>
       </c>
-      <c r="U51" s="37" t="s">
-        <v>162</v>
+      <c r="U51" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="V51" s="12">
         <f>V48-1.5*V49</f>
         <v>3.4713373093054045</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52" s="1">
         <v>9</v>
       </c>
@@ -10842,7 +10915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53" s="1">
         <v>9</v>
       </c>
@@ -10864,7 +10937,7 @@
       </c>
       <c r="L53" s="34"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54" s="1">
         <v>9</v>
       </c>
@@ -10886,7 +10959,7 @@
       </c>
       <c r="L54" s="34"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" s="1">
         <v>9</v>
       </c>
@@ -10904,7 +10977,7 @@
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -10925,7 +10998,7 @@
       </c>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57" s="1">
         <v>10</v>
       </c>
@@ -10938,7 +11011,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -10951,7 +11024,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" s="1">
         <v>10</v>
       </c>
@@ -10964,7 +11037,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -10977,7 +11050,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -10990,7 +11063,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" s="1">
         <v>10</v>
       </c>
@@ -11003,7 +11076,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" s="1">
         <v>10</v>
       </c>
@@ -11016,7 +11089,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" s="1">
         <v>10</v>
       </c>
@@ -11029,7 +11102,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>11</v>
       </c>
@@ -11042,7 +11115,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>11</v>
       </c>
@@ -11055,7 +11128,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>11</v>
       </c>
@@ -11068,7 +11141,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>11</v>
       </c>
@@ -11081,7 +11154,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>11</v>
       </c>
@@ -11094,7 +11167,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>11</v>
       </c>
@@ -11107,7 +11180,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>11</v>
       </c>
@@ -11120,7 +11193,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>11</v>
       </c>
@@ -11133,7 +11206,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -11146,7 +11219,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>11</v>
       </c>
@@ -11159,7 +11232,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>11</v>
       </c>
@@ -11172,7 +11245,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>11</v>
       </c>
@@ -11185,7 +11258,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>11</v>
       </c>
@@ -11198,7 +11271,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -11211,7 +11284,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>11</v>
       </c>
@@ -11224,7 +11297,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>12</v>
       </c>
@@ -11237,7 +11310,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>12</v>
       </c>
@@ -11250,7 +11323,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>12</v>
       </c>
@@ -11263,7 +11336,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>12</v>
       </c>
@@ -11276,7 +11349,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>12</v>
       </c>
@@ -11289,7 +11362,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -11302,7 +11375,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -11315,7 +11388,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -11328,7 +11401,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>14</v>
       </c>
@@ -11341,7 +11414,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -11354,7 +11427,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>14</v>
       </c>
@@ -11367,7 +11440,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>14</v>
       </c>
@@ -11380,7 +11453,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>14</v>
       </c>
@@ -11393,7 +11466,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>14</v>
       </c>
@@ -11406,7 +11479,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>15</v>
       </c>
@@ -11419,7 +11492,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>19</v>
       </c>
@@ -11432,7 +11505,7 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>20</v>
       </c>
@@ -11445,7 +11518,7 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>21</v>
       </c>
@@ -11458,7 +11531,7 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>23</v>
       </c>
@@ -11471,7 +11544,7 @@
         <v>Да</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>27</v>
       </c>
@@ -11489,14 +11562,14 @@
     <mergeCell ref="N29:P29"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A99">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThanOrEqual">
       <formula>$N$44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>$N$41</formula>
       <formula>$N$43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="between">
       <formula>$N$42</formula>
       <formula>$N$44</formula>
     </cfRule>
@@ -11510,4 +11583,18 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C878BD6F-FCE1-43D0-B6BE-7700564A29BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
+++ b/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\5 Раздел Исследовательский анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8CF7F-FF59-499A-B018-AE818B124505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF359DC-3DE6-4FC5-97B3-DEA85E934543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Первичная обработка данных" sheetId="6" r:id="rId1"/>
     <sheet name="2 Исследовательский анализ дан" sheetId="7" r:id="rId2"/>
     <sheet name="Отчёт" sheetId="8" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
@@ -1193,6 +1192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1202,76 +1204,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -6433,7 +6372,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A3:A112" xr:uid="{F7355CAF-D7DF-4047-B615-B5852A22CC89}">
     <filterColumn colId="0">
       <filters>
@@ -6465,15 +6404,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A80:E82" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D02143E-CED5-4EAF-8EDB-EC484875FA1C}" name="Характеристика"/>
     <tableColumn id="2" xr3:uid="{43A56096-1CFC-4B83-AB9C-89958D88D71E}" name="Обозначение"/>
-    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{6BF2E17A-4E2A-4475-8A1A-2D3F8B40D372}" name="Значение" dataDxfId="13">
       <calculatedColumnFormula>KURT(Возраст_детей[Возраст детей])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="4" xr3:uid="{EDB2101E-6CE0-4B9D-89AD-C4A5319A5E4A}" name="Что характерезует" dataDxfId="12" dataCellStyle="Гиперссылка"/>
     <tableColumn id="5" xr3:uid="{50D3550F-D067-4B93-AC12-02BD33E7BA7C}" name="Как вычисляется"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6488,10 +6427,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="20" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="19" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6500,16 +6439,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6519,7 +6458,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6538,7 +6477,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Возраст_2_го_ребёнка" displayName="Возраст_2_го_ребёнка" ref="A114:A205" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A114:A205" xr:uid="{0C3BE30E-E423-4A9B-922E-7C0D88772F5C}">
     <filterColumn colId="0">
       <filters>
@@ -6569,7 +6508,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Возраст_3_го_ребёнка" displayName="Возраст_3_го_ребёнка" ref="A207:A298" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A207:A298" xr:uid="{5C34312A-418B-4C28-A139-43BE01BAC97B}">
     <filterColumn colId="0">
       <filters>
@@ -6621,8 +6560,8 @@
     <tableColumn id="1" xr3:uid="{F8E4884A-250F-4F19-B2C0-E61FDF84F2F5}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{1EC29F04-4823-4B3A-AE7E-B19DA62E8331}" name="Обозначение"/>
     <tableColumn id="2" xr3:uid="{AFAB9759-E248-4E42-8A70-F69818856D86}" name="Значение"/>
-    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{BA638E50-01D4-48F8-A586-AF60AFA2261E}" name="Что характерезует" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{26368D20-D516-4785-990B-CE83013A6F21}" name="Как вычисляется" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6632,13 +6571,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A25:E30" totalsRowShown="0">
   <autoFilter ref="A25:E30" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{E907B708-BCA0-47BB-BB90-35F22BBD3206}" name="Обозначение"/>
-    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="21">
       <calculatedColumnFormula>C17-C16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6648,7 +6587,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A37:B42" totalsRowShown="0">
   <autoFilter ref="A37:B42" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{36E62E90-8C4F-440E-AC06-29D346A5D69C}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6659,7 +6598,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A45:B50" totalsRowShown="0">
   <autoFilter ref="A45:B50" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{E713B8F4-E0AA-469B-AADF-9CE82893C1B0}" name="Значения"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6931,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE50D3-57D2-4B49-AF09-961EE50BFC93}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9329,8 +9268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA7EFD-5432-4866-B4C0-B52E7E03A82C}">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9519,17 +9458,17 @@
         <v>163</v>
       </c>
       <c r="E27" s="43"/>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
     </row>
     <row r="28" spans="1:15" ht="93" customHeight="1">
       <c r="A28" s="27" t="s">
@@ -9546,15 +9485,15 @@
         <v>163</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
     </row>
     <row r="29" spans="1:15" ht="162" customHeight="1">
       <c r="A29" s="27" t="s">
@@ -9573,15 +9512,15 @@
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" ht="90">
       <c r="A30" s="27" t="s">
@@ -9599,17 +9538,17 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
@@ -9843,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2C38E-6167-453C-8D40-81174ADCB121}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
@@ -10415,11 +10354,11 @@
       <c r="M29" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
       <c r="U29" s="55" t="s">
         <v>149</v>
       </c>
@@ -10461,7 +10400,7 @@
       <c r="M31" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="U31" s="60" t="s">
+      <c r="U31" s="57" t="s">
         <v>150</v>
       </c>
     </row>
@@ -11562,14 +11501,14 @@
     <mergeCell ref="N29:P29"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A99">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThanOrEqual">
       <formula>$N$44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>$N$41</formula>
       <formula>$N$43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
       <formula>$N$42</formula>
       <formula>$N$44</formula>
     </cfRule>
@@ -11583,18 +11522,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C878BD6F-FCE1-43D0-B6BE-7700564A29BA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A95"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
+++ b/Теория вероятностей. Решение задач/5 Раздел Исследовательский анализ данных/Исследование.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\5 Раздел Исследовательский анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF359DC-3DE6-4FC5-97B3-DEA85E934543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41443258-7059-44EE-8F48-0D273CCF33E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <author>Spaceship24</author>
   </authors>
   <commentList>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{0D5D98BC-DA76-4544-8A16-CF1002399C8B}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{0D5D98BC-DA76-4544-8A16-CF1002399C8B}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{BEFAA7B8-D1B6-4DF5-BB99-0832D6B29BC3}">
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{BEFAA7B8-D1B6-4DF5-BB99-0832D6B29BC3}">
       <text>
         <r>
           <rPr>
@@ -1213,6 +1213,21 @@
   <dxfs count="28">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1254,21 +1269,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2513,7 +2513,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$46</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2530,9 +2530,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Значения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$46</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2553,7 +2564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$47</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2591,9 +2602,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Значения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$47</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2614,7 +2636,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$48</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2633,9 +2655,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Значения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$48</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2656,7 +2689,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$49</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2675,9 +2708,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Значения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$49</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2698,7 +2742,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$50</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2753,9 +2797,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Значения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$50</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5863,14 +5918,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>72268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2018964</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1066606</xdr:rowOff>
+      <xdr:rowOff>248576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5907,13 +5962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>83376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1904643</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>723744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5951,13 +6006,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1876235</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>609530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5995,13 +6050,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6031,13 +6086,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>372852</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6075,13 +6130,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>304799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2142067</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>885824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6136,13 +6191,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2162555</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>552449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6404,8 +6459,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A80:E82" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A79:E81" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A79:E81" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D02143E-CED5-4EAF-8EDB-EC484875FA1C}" name="Характеристика"/>
     <tableColumn id="2" xr3:uid="{43A56096-1CFC-4B83-AB9C-89958D88D71E}" name="Обозначение"/>
@@ -6427,10 +6482,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="11" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="10" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6439,16 +6494,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="6">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6458,7 +6513,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6554,8 +6609,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}" name="Характеристики_положения" displayName="Характеристики_положения" ref="A12:E18" totalsRowShown="0">
-  <autoFilter ref="A12:E18" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}" name="Характеристики_положения" displayName="Характеристики_положения" ref="A12:E17" totalsRowShown="0">
+  <autoFilter ref="A12:E17" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F8E4884A-250F-4F19-B2C0-E61FDF84F2F5}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{1EC29F04-4823-4B3A-AE7E-B19DA62E8331}" name="Обозначение"/>
@@ -6568,8 +6623,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A25:E30" totalsRowShown="0">
-  <autoFilter ref="A25:E30" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A24:E29" totalsRowShown="0">
+  <autoFilter ref="A24:E29" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{E907B708-BCA0-47BB-BB90-35F22BBD3206}" name="Обозначение"/>
@@ -6584,8 +6639,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A37:B42" totalsRowShown="0">
-  <autoFilter ref="A37:B42" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A36:B41" totalsRowShown="0">
+  <autoFilter ref="A36:B41" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{36E62E90-8C4F-440E-AC06-29D346A5D69C}" name="Значения"/>
@@ -6595,8 +6650,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A45:B50" totalsRowShown="0">
-  <autoFilter ref="A45:B50" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A44:B49" totalsRowShown="0">
+  <autoFilter ref="A44:B49" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{E713B8F4-E0AA-469B-AADF-9CE82893C1B0}" name="Значения"/>
@@ -9266,10 +9321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA7EFD-5432-4866-B4C0-B52E7E03A82C}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9396,68 +9451,80 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="13"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="107.25" customHeight="1">
-      <c r="A26" s="27" t="s">
+    <row r="25" spans="1:15" ht="120">
+      <c r="A25" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B25" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C25" s="39">
         <f>C17-C16</f>
         <v>4</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E25" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="64.5" customHeight="1">
-      <c r="A27" s="43" t="s">
+    <row r="26" spans="1:15" ht="107.25" customHeight="1">
+      <c r="A26" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B26" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C26" s="41">
         <f>_xlfn.VAR.P(Возраст_детей[Возраст детей])</f>
         <v>16.574626038781162</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D26" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:15" ht="64.5" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="44">
+        <f>_xlfn.VAR.S(Возраст_детей[Возраст детей])</f>
+        <v>16.750951847704371</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="27"/>
       <c r="G27" s="58" t="s">
         <v>168</v>
       </c>
@@ -9472,19 +9539,21 @@
     </row>
     <row r="28" spans="1:15" ht="93" customHeight="1">
       <c r="A28" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="44">
-        <f>_xlfn.VAR.S(Возраст_детей[Возраст детей])</f>
-        <v>16.750951847704371</v>
+        <f>SQRT(C27)</f>
+        <v>4.0927926709893789</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -9497,21 +9566,19 @@
     </row>
     <row r="29" spans="1:15" ht="162" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="44">
-        <f>SQRT(C28)</f>
-        <v>4.0927926709893789</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C29" s="46">
+        <f>C28/C15</f>
+        <v>0.42586561198684669</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="27"/>
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
@@ -9522,21 +9589,7 @@
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="1:15" ht="90">
-      <c r="A30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="46">
-        <f>C29/C15</f>
-        <v>0.42586561198684669</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="27"/>
+    <row r="30" spans="1:15">
       <c r="F30" s="17"/>
       <c r="G30" s="58" t="s">
         <v>170</v>
@@ -9550,210 +9603,210 @@
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
     </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
-        <v>74</v>
+      <c r="A34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>86</v>
+      <c r="A35" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
-        <v>79</v>
+      <c r="A36" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <f>MIN(Возраст_детей[Возраст детей])</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B38">
-        <f>MIN(Возраст_детей[Возраст детей])</f>
-        <v>2</v>
+        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
-        <v>7</v>
+        <f>MEDIAN(Возраст_детей[Возраст детей])</f>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="19" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B40">
-        <f>MEDIAN(Возраст_детей[Возраст детей])</f>
-        <v>9</v>
+        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B41">
-        <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42">
         <f>MAX(Возраст_детей[Возраст детей])</f>
         <v>27</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="19"/>
+    </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
-        <v>84</v>
+      <c r="A44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <f>B37</f>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>77</v>
+      <c r="A46" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B46">
-        <f>B38</f>
-        <v>2</v>
+        <f>B38-B45</f>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B47">
-        <f>B39-B46</f>
-        <v>5</v>
+        <f>B39-B38</f>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B48">
-        <f>B40-B39</f>
-        <v>2</v>
+        <f>B40-B38</f>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49">
-        <f>B41-B39</f>
-        <v>4</v>
+        <f>B41-B40</f>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50">
-        <f>B42-B41</f>
-        <v>16</v>
-      </c>
+      <c r="A50" s="19"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="19"/>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="19"/>
+    <row r="53" spans="1:5">
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="E54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="E55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="14" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="14" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="22" t="s">
+      <c r="A79" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B79" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C79" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D79" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E79" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="90">
-      <c r="A81" t="s">
+    <row r="80" spans="1:5" ht="90">
+      <c r="A80" t="s">
         <v>89</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B80" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C80" s="18">
         <f>SKEW(Возраст_детей[Возраст детей])</f>
         <v>1.5182607207914853</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D80" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="75">
-      <c r="A82" t="s">
+    <row r="81" spans="1:4" ht="75">
+      <c r="A81" t="s">
         <v>90</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B81" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C81" s="18">
         <f>KURT(Возраст_детей[Возраст детей])</f>
         <v>4.026404197317472</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D81" s="17" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9763,7 +9816,7 @@
     <mergeCell ref="G30:O30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D81" r:id="rId1" display="https://excel2.ru/articles/funkciya-raspredeleniya-i-plotnost-veroyatnosti-v-ms-excel" xr:uid="{097F1DB3-CD9D-4A52-A27A-36D025F1F1FA}"/>
+    <hyperlink ref="D80" r:id="rId1" display="https://excel2.ru/articles/funkciya-raspredeleniya-i-plotnost-veroyatnosti-v-ms-excel" xr:uid="{097F1DB3-CD9D-4A52-A27A-36D025F1F1FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -9969,7 +10022,7 @@
         <v>73</v>
       </c>
       <c r="O8" s="44">
-        <f>SQRT('2 Исследовательский анализ дан'!C28)</f>
+        <f>SQRT('2 Исследовательский анализ дан'!C27)</f>
         <v>4.0927926709893789</v>
       </c>
       <c r="P8" s="27" t="s">
@@ -11501,15 +11554,15 @@
     <mergeCell ref="N29:P29"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A99">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>$N$42</formula>
       <formula>$N$44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>$N$41</formula>
       <formula>$N$43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
-      <formula>$N$42</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
       <formula>$N$44</formula>
     </cfRule>
   </conditionalFormatting>
